--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_9_Industrial consumption.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_9_Industrial consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
   <si>
     <t>tech</t>
   </si>
@@ -131,9 +131,6 @@
     <t>IND_CH_MTH_ELCSYS_NEW</t>
   </si>
   <si>
-    <t>IND_CH_MTH_NGASR_CCS_NEW</t>
-  </si>
-  <si>
     <t>IND_CH_EC_NEW</t>
   </si>
   <si>
@@ -182,12 +179,15 @@
     <t>IND_IS_SCR_NEW</t>
   </si>
   <si>
-    <t>IND_IS_BOF_BFBOF_CCS_NEW</t>
-  </si>
-  <si>
     <t>IND_IS_BOF_HISBOF_NEW</t>
   </si>
   <si>
+    <t>IND_IS_DRI_HDREAF_NEW</t>
+  </si>
+  <si>
+    <t>IND_IS_BOF_ULCOLYSIS_NEW</t>
+  </si>
+  <si>
     <t>IND_IS_MD_ELC_NEW</t>
   </si>
   <si>
@@ -224,9 +224,6 @@
     <t>IND_NF_ALU_HLHIA_NEW</t>
   </si>
   <si>
-    <t>IND_NF_ALU_CBT_NEW</t>
-  </si>
-  <si>
     <t>IND_NF_COP_NEW</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
     <t>IND_NM_LIM_LRK_NEW</t>
   </si>
   <si>
+    <t>IND_NM_GLS_FOSS_NEW</t>
+  </si>
+  <si>
     <t>IND_NM_GLS_ELEC_NEW</t>
   </si>
   <si>
@@ -407,6 +407,12 @@
     <t>IND_OTH_PH_NGA_NEW</t>
   </si>
   <si>
+    <t>IND_OTH_PH_COA_NEW</t>
+  </si>
+  <si>
+    <t>IND_OTH_PH_COK_NEW</t>
+  </si>
+  <si>
     <t>IND_OTH_PH_ELC_NEW</t>
   </si>
   <si>
@@ -483,6 +489,9 @@
   </si>
   <si>
     <t>IND_IS_ELC</t>
+  </si>
+  <si>
+    <t>IND_HH2</t>
   </si>
   <si>
     <t>IND_NF_ELC</t>
@@ -864,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,22 +922,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>48.4391020247601</v>
+        <v>47.49858612110477</v>
       </c>
       <c r="E2">
-        <v>29.60857292211157</v>
+        <v>29.60857292211186</v>
       </c>
       <c r="F2">
-        <v>30.57625632347992</v>
+        <v>31.76638828504589</v>
       </c>
       <c r="G2">
         <v>28.12814427600627</v>
       </c>
       <c r="H2">
-        <v>14.06407213800314</v>
+        <v>14.11777132253006</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -951,19 +960,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3">
-        <v>7.339257882539661</v>
+        <v>7.196755472894687</v>
       </c>
       <c r="E3">
-        <v>4.486147412441192</v>
+        <v>4.48614741244119</v>
       </c>
       <c r="F3">
-        <v>4.246702267149893</v>
+        <v>4.411998372923039</v>
       </c>
       <c r="G3">
-        <v>4.261840041819131</v>
+        <v>4.261840041819132</v>
       </c>
       <c r="H3">
         <v>2.130920020909567</v>
@@ -989,22 +998,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>4.403554729523644</v>
+        <v>4.318053283736797</v>
       </c>
       <c r="E4">
-        <v>2.691688447464684</v>
+        <v>2.691688447464714</v>
       </c>
       <c r="F4">
-        <v>2.548021360289929</v>
+        <v>2.647199023753823</v>
       </c>
       <c r="G4">
-        <v>2.557104025091479</v>
+        <v>2.557104025091478</v>
       </c>
       <c r="H4">
-        <v>1.27855201254574</v>
+        <v>1.278552012545739</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1027,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.69168844746495</v>
+        <v>2.691688447464725</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1065,22 +1074,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6">
-        <v>17.60247610548249</v>
+        <v>17.26069832619057</v>
       </c>
       <c r="E6">
-        <v>8.97229482488237</v>
+        <v>8.972294824882379</v>
       </c>
       <c r="F6">
-        <v>8.493404534299785</v>
+        <v>8.823996745846079</v>
       </c>
       <c r="G6">
-        <v>8.523680083638263</v>
+        <v>8.523680083638261</v>
       </c>
       <c r="H6">
-        <v>4.261840041819133</v>
+        <v>4.261840041819132</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1103,16 +1112,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>39.63199256571274</v>
+        <v>38.86247955363118</v>
       </c>
       <c r="E7">
-        <v>24.22519602718233</v>
+        <v>24.22519602718242</v>
       </c>
       <c r="F7">
-        <v>22.93219224260941</v>
+        <v>23.82479121378441</v>
       </c>
       <c r="G7">
         <v>23.01393622582331</v>
@@ -1141,22 +1150,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>9.898746550138027</v>
+        <v>9.898746550138037</v>
       </c>
       <c r="E8">
-        <v>7.918997240110396</v>
+        <v>7.918997240110418</v>
       </c>
       <c r="F8">
-        <v>5.939247930082737</v>
+        <v>5.939247930082801</v>
       </c>
       <c r="G8">
-        <v>3.9594986200552</v>
+        <v>3.959498620055198</v>
       </c>
       <c r="H8">
-        <v>1.979749310027597</v>
+        <v>1.979749310027602</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1179,22 +1188,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>2.284326126954922</v>
+        <v>2.284326126954921</v>
       </c>
       <c r="E9">
-        <v>1.827460901563937</v>
+        <v>1.827460901563758</v>
       </c>
       <c r="F9">
         <v>1.370595676172953</v>
       </c>
       <c r="G9">
-        <v>0.9137304507819688</v>
+        <v>0.9137304507819689</v>
       </c>
       <c r="H9">
-        <v>0.4568652253909843</v>
+        <v>0.4568652253909133</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1217,22 +1226,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>1.522884084636615</v>
       </c>
       <c r="E10">
-        <v>1.218307267709333</v>
+        <v>1.218307267709601</v>
       </c>
       <c r="F10">
-        <v>0.9137304507819755</v>
+        <v>0.9137304507819689</v>
       </c>
       <c r="G10">
         <v>0.6091536338546459</v>
       </c>
       <c r="H10">
-        <v>0.3045768169273228</v>
+        <v>0.304576816927323</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1255,22 +1264,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11">
-        <v>8.375862465501319</v>
+        <v>8.375862465501395</v>
       </c>
       <c r="E11">
-        <v>6.700689972401105</v>
+        <v>6.700689972401106</v>
       </c>
       <c r="F11">
-        <v>5.025517479300828</v>
+        <v>5.02551747930084</v>
       </c>
       <c r="G11">
         <v>3.350344986200553</v>
       </c>
       <c r="H11">
-        <v>1.675172493100275</v>
+        <v>1.675172493100287</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1293,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>10.6601885924563</v>
@@ -1302,13 +1311,13 @@
         <v>8.528150873965043</v>
       </c>
       <c r="F12">
-        <v>6.396113155473782</v>
+        <v>6.396113155473783</v>
       </c>
       <c r="G12">
-        <v>4.264075436982504</v>
+        <v>4.264075436982522</v>
       </c>
       <c r="H12">
-        <v>2.13203771849126</v>
+        <v>2.132037718491211</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1331,22 +1340,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>110.9311274509804</v>
       </c>
       <c r="E13">
-        <v>88.74490196078426</v>
+        <v>88.7449019607843</v>
       </c>
       <c r="F13">
-        <v>66.55867647058822</v>
+        <v>66.55867647058827</v>
       </c>
       <c r="G13">
-        <v>44.37245098039216</v>
+        <v>44.37245098039215</v>
       </c>
       <c r="H13">
-        <v>22.18622549019607</v>
+        <v>22.18622549019608</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1369,19 +1378,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D14">
-        <v>4.870147058823529</v>
+        <v>4.870147058823528</v>
       </c>
       <c r="E14">
-        <v>3.896117647058823</v>
+        <v>3.896117647058824</v>
       </c>
       <c r="F14">
-        <v>2.922088235294117</v>
+        <v>2.922088235294118</v>
       </c>
       <c r="G14">
-        <v>1.948058823529425</v>
+        <v>1.948058823529412</v>
       </c>
       <c r="H14">
         <v>0.9740294117647058</v>
@@ -1407,22 +1416,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D15">
-        <v>9.199166666666668</v>
+        <v>9.199166666666663</v>
       </c>
       <c r="E15">
-        <v>7.35933333333335</v>
+        <v>7.359333333333332</v>
       </c>
       <c r="F15">
-        <v>5.519500000000001</v>
+        <v>5.519499999999981</v>
       </c>
       <c r="G15">
         <v>3.679666666666667</v>
       </c>
       <c r="H15">
-        <v>1.839833333333334</v>
+        <v>1.839833333333332</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1445,16 +1454,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>8.822377622377621</v>
+        <v>8.822377622377616</v>
       </c>
       <c r="E16">
-        <v>7.057902097902096</v>
+        <v>7.057902097902095</v>
       </c>
       <c r="F16">
-        <v>5.29342657342657</v>
+        <v>5.293426573426565</v>
       </c>
       <c r="G16">
         <v>3.528951048951048</v>
@@ -1483,16 +1492,16 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D17">
-        <v>0.6616783216783216</v>
+        <v>0.6616783216783217</v>
       </c>
       <c r="E17">
         <v>0.5293426573426574</v>
       </c>
       <c r="F17">
-        <v>0.397006993006993</v>
+        <v>0.3970069930069929</v>
       </c>
       <c r="G17">
         <v>0.2646713286713286</v>
@@ -1521,28 +1530,28 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18">
-        <v>261.0195526648236</v>
+        <v>261.2227398200154</v>
       </c>
       <c r="E18">
-        <v>0.4913968425446629</v>
+        <v>228.859226265882</v>
       </c>
       <c r="F18">
-        <v>0.003690037368742072</v>
+        <v>228.7583298317312</v>
       </c>
       <c r="G18">
-        <v>33.79689645343856</v>
+        <v>262.082546339559</v>
       </c>
       <c r="H18">
-        <v>41.69040622326182</v>
+        <v>257.4255697708065</v>
       </c>
       <c r="I18">
-        <v>47.21312813968135</v>
+        <v>238.6913256550079</v>
       </c>
       <c r="J18">
-        <v>28.13442867689475</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1559,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>13.78658536585366</v>
@@ -1597,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>4.210843373493976</v>
@@ -1612,10 +1621,10 @@
         <v>2.105421686746988</v>
       </c>
       <c r="H20">
-        <v>2.105421686746988</v>
+        <v>1.403614457831325</v>
       </c>
       <c r="I20">
-        <v>1.333433734939759</v>
+        <v>0.7018072289156627</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1635,16 +1644,16 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D21">
-        <v>61.84117647058823</v>
+        <v>77.86525984780836</v>
       </c>
       <c r="E21">
         <v>51.53431372549021</v>
       </c>
       <c r="F21">
-        <v>48.07148111325125</v>
+        <v>41.22745098039216</v>
       </c>
       <c r="G21">
         <v>30.92058823529412</v>
@@ -1673,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>5.99390243902439</v>
@@ -1711,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D23">
         <v>0.3719512195121952</v>
@@ -1749,10 +1758,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D24">
-        <v>22.74295248557083</v>
+        <v>33.45888725306165</v>
       </c>
       <c r="E24">
         <v>17.75602409638554</v>
@@ -1787,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D25">
         <v>0.8253012048192772</v>
@@ -1825,7 +1834,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <v>25.390625</v>
@@ -1863,7 +1872,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D27">
         <v>7.623529411764707</v>
@@ -1901,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D28">
         <v>168.5681395348837</v>
@@ -1939,13 +1948,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D29">
         <v>8.228999999999999</v>
       </c>
       <c r="E29">
-        <v>6.583199999999999</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1977,7 +1986,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2012,37 +2021,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D31">
-        <v>11.96509169523779</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>58.29913748670363</v>
+        <v>6.583199999999999</v>
       </c>
       <c r="F31">
-        <v>88.03073395222304</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>155.4238817177865</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>221.7359324956828</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>245.7065816606711</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>252.200115223161</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>252.200115223161</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>254.9320496894421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2050,37 +2059,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>11.96509169523821</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>58.29913748670349</v>
       </c>
       <c r="F32">
-        <v>3.375099346086492</v>
+        <v>87.81621771427032</v>
       </c>
       <c r="G32">
-        <v>3.375099346086492</v>
+        <v>155.1823752176873</v>
       </c>
       <c r="H32">
-        <v>3.375099346086493</v>
+        <v>211.55351195729</v>
       </c>
       <c r="I32">
-        <v>3.375099346086492</v>
+        <v>245.482285438283</v>
       </c>
       <c r="J32">
-        <v>0.3573316320781501</v>
+        <v>249.03349025756</v>
       </c>
       <c r="K32">
-        <v>3.375099346086492</v>
+        <v>249.03349025756</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>79.27782911020313</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2088,10 +2097,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2100,25 +2109,25 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3.571983076609363</v>
       </c>
       <c r="G33">
-        <v>104.8950240938034</v>
+        <v>3.57198307660936</v>
       </c>
       <c r="H33">
-        <v>176.9675042837845</v>
+        <v>3.571983076609362</v>
       </c>
       <c r="I33">
-        <v>178.9930869673537</v>
+        <v>3.571983076609363</v>
       </c>
       <c r="J33">
-        <v>178.9930869673537</v>
+        <v>3.571983076609363</v>
       </c>
       <c r="K33">
-        <v>198.3979999999978</v>
+        <v>3.571983076609363</v>
       </c>
       <c r="L33">
-        <v>203.738117728835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2126,37 +2135,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D34">
-        <v>88.02571512752814</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>157.190337289424</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>158.7658684415383</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>113.258513207403</v>
+        <v>110.8717962318524</v>
       </c>
       <c r="H34">
-        <v>103.2676535848871</v>
+        <v>176.9675042837844</v>
       </c>
       <c r="I34">
-        <v>158.2359044600417</v>
+        <v>184.2545154247088</v>
       </c>
       <c r="J34">
-        <v>161.2209509098212</v>
+        <v>184.2545154247088</v>
       </c>
       <c r="K34">
-        <v>148.037788022753</v>
+        <v>158.3520660744128</v>
       </c>
       <c r="L34">
-        <v>146.9211177620891</v>
+        <v>75.17310175991841</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2164,37 +2173,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>91.22891987989972</v>
       </c>
       <c r="E35">
-        <v>85.7295828986655</v>
+        <v>157.2779760772792</v>
       </c>
       <c r="F35">
-        <v>80.55785911724321</v>
+        <v>155.2013863521783</v>
       </c>
       <c r="G35">
-        <v>75.38215402421088</v>
+        <v>109.6313622206176</v>
       </c>
       <c r="H35">
-        <v>70.21441155439858</v>
+        <v>106.3970565674232</v>
       </c>
       <c r="I35">
-        <v>70.21441155439858</v>
+        <v>158.6912603014593</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>157.9097530706274</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>171.3817220159173</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>197.3208706929753</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2202,37 +2211,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D36">
-        <v>23.74402799999977</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>22.96797859999984</v>
+        <v>88.24910396313606</v>
       </c>
       <c r="F36">
-        <v>84.6140429262699</v>
+        <v>82.9253875256627</v>
       </c>
       <c r="G36">
-        <v>87.77591627411554</v>
+        <v>77.59757276914587</v>
       </c>
       <c r="H36">
-        <v>102.5265017180859</v>
+        <v>72.277954650716</v>
       </c>
       <c r="I36">
-        <v>117.2770871620569</v>
+        <v>72.277954650716</v>
       </c>
       <c r="J36">
-        <v>120.4324050768684</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>117.4146373628601</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>120.7897367089466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2240,37 +2249,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>23.74402799999986</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>19.86853019290839</v>
       </c>
       <c r="F37">
-        <v>13.41212841248996</v>
+        <v>82.73258781683403</v>
       </c>
       <c r="G37">
-        <v>112.9304569246362</v>
+        <v>86.78706013585433</v>
       </c>
       <c r="H37">
-        <v>176.5540966341757</v>
+        <v>101.5376455798253</v>
       </c>
       <c r="I37">
-        <v>229.5920065009414</v>
+        <v>80.89781517982536</v>
       </c>
       <c r="J37">
-        <v>229.5920065009412</v>
+        <v>80.89781517982517</v>
       </c>
       <c r="K37">
-        <v>251.0152883199412</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>272.5718459982061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2278,10 +2287,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2290,25 +2299,25 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>12.81188559587412</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>111.6122158424737</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>108.8843041708168</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>51.73038444423212</v>
       </c>
       <c r="J38">
-        <v>120.8968206735007</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>81.75495645012398</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>34.62679452765866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2316,37 +2325,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.431385600155903</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.8731300309735529</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>14.37597042957751</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>14.37551340397189</v>
+        <v>122.0089389073038</v>
       </c>
       <c r="I39">
-        <v>14.37551340397189</v>
+        <v>377.1164196688414</v>
       </c>
       <c r="J39">
-        <v>14.37551340397189</v>
+        <v>596.6875473993923</v>
       </c>
       <c r="K39">
-        <v>13.00167061690617</v>
+        <v>730.1182581629138</v>
       </c>
       <c r="L39">
-        <v>6.500835308453085</v>
+        <v>738.4150046555934</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2354,31 +2363,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40">
-        <v>1.106778394324114</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>9.991547299019123</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>18.46056968978368</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>17.35379129545957</v>
+        <v>12.42652939923779</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>12.42705610876795</v>
       </c>
       <c r="I40">
-        <v>10.40996023671313</v>
+        <v>12.42613436709018</v>
       </c>
       <c r="J40">
-        <v>17.35379129545957</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2392,37 +2401,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1.106778394324623</v>
       </c>
       <c r="E41">
-        <v>0.09000900090009001</v>
+        <v>11.36199662431438</v>
       </c>
       <c r="F41">
-        <v>0.09000900087541119</v>
+        <v>19.33558725063327</v>
       </c>
       <c r="G41">
-        <v>0.09000900090009512</v>
+        <v>19.33558725063306</v>
       </c>
       <c r="H41">
-        <v>43.71809552841032</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>42.4370102580788</v>
+        <v>5.148531779357995</v>
       </c>
       <c r="J41">
-        <v>32.4265408884436</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>63.59913823675246</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>75.06848050677276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2430,37 +2439,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.09000900089969574</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.09000900090009001</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.09000900089987919</v>
       </c>
       <c r="H42">
-        <v>0.0007522963636363635</v>
+        <v>46.75772702230118</v>
       </c>
       <c r="I42">
-        <v>0.0007522963636363636</v>
+        <v>53.96851947836297</v>
       </c>
       <c r="J42">
-        <v>0.02910523636364352</v>
+        <v>83.5049223633692</v>
       </c>
       <c r="K42">
-        <v>0.02910523636319234</v>
+        <v>84.66115475926559</v>
       </c>
       <c r="L42">
-        <v>0.02910523636375936</v>
+        <v>85.62320731850845</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2468,37 +2477,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>247.7708854769595</v>
+        <v>25.85323115918368</v>
       </c>
       <c r="F43">
-        <v>247.7708854769596</v>
+        <v>25.85323115918368</v>
       </c>
       <c r="G43">
-        <v>247.7708854769595</v>
+        <v>25.85323115918368</v>
       </c>
       <c r="H43">
-        <v>247.7708854769595</v>
+        <v>25.85323115918368</v>
       </c>
       <c r="I43">
-        <v>247.7708854769595</v>
+        <v>25.85323115918368</v>
       </c>
       <c r="J43">
-        <v>266.8944684389825</v>
+        <v>238.3555136694086</v>
       </c>
       <c r="K43">
-        <v>283.7411350208055</v>
+        <v>231.3236060570673</v>
       </c>
       <c r="L43">
-        <v>289.2684871202665</v>
+        <v>232.8505924902094</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2506,22 +2515,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D44">
-        <v>111.4536285784333</v>
+        <v>97.08636059118855</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>111.4536285784333</v>
+        <v>97.08636059118855</v>
       </c>
       <c r="G44">
-        <v>27.71269839209258</v>
+        <v>16.33104623878073</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2544,19 +2553,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D45">
-        <v>56.2326172482077</v>
+        <v>45.85846026000807</v>
       </c>
       <c r="E45">
-        <v>56.2326172482077</v>
+        <v>45.85846026000807</v>
       </c>
       <c r="F45">
-        <v>32.20628838564848</v>
+        <v>21.71605542385488</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2582,37 +2591,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>153.8554186590632</v>
+        <v>164.8327243093675</v>
       </c>
       <c r="F46">
-        <v>72.8443238281593</v>
+        <v>105.9114767078787</v>
       </c>
       <c r="G46">
-        <v>248.0780089835394</v>
+        <v>260.1213850992519</v>
       </c>
       <c r="H46">
-        <v>306.0814219435892</v>
+        <v>306.7587475249846</v>
       </c>
       <c r="I46">
-        <v>335.7723564344113</v>
+        <v>336.3819494576674</v>
       </c>
       <c r="J46">
-        <v>364.6100373499371</v>
+        <v>364.6100373499355</v>
       </c>
       <c r="K46">
-        <v>369.6585294043116</v>
+        <v>369.6585294043118</v>
       </c>
       <c r="L46">
-        <v>373.8591682364946</v>
+        <v>373.8591682364948</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2620,37 +2629,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47">
-        <v>347.8899666590532</v>
+        <v>347.7523624990843</v>
       </c>
       <c r="E47">
-        <v>378.4398352502721</v>
+        <v>378.6220588066562</v>
       </c>
       <c r="F47">
-        <v>390.9788985620407</v>
+        <v>391.257726997473</v>
       </c>
       <c r="G47">
-        <v>445.1995409688809</v>
+        <v>445.3851150580388</v>
       </c>
       <c r="H47">
-        <v>468.9500297241894</v>
+        <v>485.7792179051996</v>
       </c>
       <c r="I47">
-        <v>494.5323699747627</v>
+        <v>546.3223923090053</v>
       </c>
       <c r="J47">
-        <v>516.2742349593475</v>
+        <v>581.8942943228889</v>
       </c>
       <c r="K47">
-        <v>515.2335266975879</v>
+        <v>605.2787273038915</v>
       </c>
       <c r="L47">
-        <v>513.369719925647</v>
+        <v>611.4704090082391</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2658,13 +2667,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48">
-        <v>284.5117915356914</v>
+        <v>248.7088114286958</v>
       </c>
       <c r="E48">
         <v>206.3757716049383</v>
@@ -2676,7 +2685,7 @@
         <v>124.9976373697426</v>
       </c>
       <c r="H48">
-        <v>108.5568035274141</v>
+        <v>112.2888074806445</v>
       </c>
       <c r="I48">
         <v>56.14440374032225</v>
@@ -2696,16 +2705,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49">
-        <v>20.50765536723164</v>
+        <v>20.5076553672316</v>
       </c>
       <c r="E49">
-        <v>17.08971280602652</v>
+        <v>17.08971280602637</v>
       </c>
       <c r="F49">
         <v>13.67177024482109</v>
@@ -2714,10 +2723,10 @@
         <v>10.25382768361582</v>
       </c>
       <c r="H49">
-        <v>6.835885122410547</v>
+        <v>7.779910814042414</v>
       </c>
       <c r="I49">
-        <v>10.2556266007533</v>
+        <v>3.417942561205273</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2734,28 +2743,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50">
-        <v>58.4048430634024</v>
+        <v>58.40484306340233</v>
       </c>
       <c r="E50">
-        <v>48.67070255283534</v>
+        <v>48.67070255283533</v>
       </c>
       <c r="F50">
-        <v>38.93656204226827</v>
+        <v>38.93656204226826</v>
       </c>
       <c r="G50">
-        <v>29.2024215317012</v>
+        <v>29.20242153170119</v>
       </c>
       <c r="H50">
-        <v>19.46828102113413</v>
+        <v>19.46828102113412</v>
       </c>
       <c r="I50">
-        <v>9.734140510567061</v>
+        <v>9.734140510567068</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2772,16 +2781,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51">
-        <v>239.7356905210295</v>
+        <v>239.7356905210301</v>
       </c>
       <c r="E51">
-        <v>199.7797421008579</v>
+        <v>199.779742100858</v>
       </c>
       <c r="F51">
         <v>159.8237936806864</v>
@@ -2790,10 +2799,10 @@
         <v>119.8678452605148</v>
       </c>
       <c r="H51">
-        <v>97.3192688726696</v>
+        <v>92.64323922780734</v>
       </c>
       <c r="I51">
-        <v>39.95594842017158</v>
+        <v>39.95594842017159</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2810,28 +2819,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52">
-        <v>109.9904527944117</v>
+        <v>112.5900770889206</v>
       </c>
       <c r="E52">
-        <v>58.9645061728395</v>
+        <v>58.96450617283951</v>
       </c>
       <c r="F52">
         <v>47.17160493827161</v>
       </c>
       <c r="G52">
-        <v>99.3273296735719</v>
+        <v>99.32732967357194</v>
       </c>
       <c r="H52">
-        <v>23.58580246913581</v>
+        <v>23.5858024691358</v>
       </c>
       <c r="I52">
-        <v>11.7929012345679</v>
+        <v>18.63058527411593</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2848,13 +2857,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53">
-        <v>172.9359008160703</v>
+        <v>172.93590081607</v>
       </c>
       <c r="E53">
         <v>144.1132506800586</v>
@@ -2863,10 +2872,10 @@
         <v>115.2906005440469</v>
       </c>
       <c r="G53">
-        <v>86.46795040803514</v>
+        <v>86.46795040803508</v>
       </c>
       <c r="H53">
-        <v>57.64530027202343</v>
+        <v>57.64530027202346</v>
       </c>
       <c r="I53">
         <v>28.82265013601172</v>
@@ -2886,28 +2895,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54">
-        <v>63.74191448973375</v>
+        <v>96.94527030221775</v>
       </c>
       <c r="E54">
-        <v>116.529854572086</v>
+        <v>116.5298545720864</v>
       </c>
       <c r="F54">
-        <v>93.22388365766899</v>
+        <v>93.22388365766896</v>
       </c>
       <c r="G54">
-        <v>4.797112366603893</v>
+        <v>4.797112366603912</v>
       </c>
       <c r="H54">
-        <v>3.198074911069261</v>
+        <v>3.198074911069274</v>
       </c>
       <c r="I54">
-        <v>1.599037455534601</v>
+        <v>1.599037455534631</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2924,25 +2933,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D55">
-        <v>4.11195356658986</v>
+        <v>4.109216467958268</v>
       </c>
       <c r="E55">
-        <v>3.225633383010432</v>
+        <v>3.225633383010443</v>
       </c>
       <c r="F55">
-        <v>2.617958271236994</v>
+        <v>2.617958271236999</v>
       </c>
       <c r="G55">
-        <v>1.61520149031298</v>
+        <v>1.616393889716805</v>
       </c>
       <c r="H55">
-        <v>0.8064083457526141</v>
+        <v>0.8091906110281532</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2962,25 +2971,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D56">
-        <v>0.1843913189269746</v>
+        <v>0.24291825633383</v>
       </c>
       <c r="E56">
-        <v>0.264977645305514</v>
+        <v>0.2649776453055149</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.1301040238450087</v>
+        <v>0.1141300663885558</v>
       </c>
       <c r="H56">
-        <v>0.06624441132637901</v>
+        <v>0.06346214605065766</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3000,25 +3009,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D57">
-        <v>0.1152757078986578</v>
+        <v>0.1152757078986587</v>
       </c>
       <c r="E57">
-        <v>0.09222056631892697</v>
+        <v>0.09222056631892728</v>
       </c>
       <c r="F57">
-        <v>0.06916542473919614</v>
+        <v>0.06916542473919628</v>
       </c>
       <c r="G57">
-        <v>0.04611028315946391</v>
+        <v>0.04611028315946254</v>
       </c>
       <c r="H57">
-        <v>0.02305514157973192</v>
+        <v>0.02305514157972709</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3038,13 +3047,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D58">
-        <v>102.3307341119613</v>
+        <v>105.9813637325952</v>
       </c>
       <c r="E58">
         <v>72.33314538864278</v>
@@ -3053,13 +3062,13 @@
         <v>106.9374788562223</v>
       </c>
       <c r="G58">
-        <v>44.06234522754732</v>
+        <v>43.92570589262652</v>
       </c>
       <c r="H58">
-        <v>28.93325815545711</v>
+        <v>29.96374836890858</v>
       </c>
       <c r="I58">
-        <v>14.46662907772856</v>
+        <v>14.98187418445429</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3076,28 +3085,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D59">
-        <v>33.34371904953686</v>
+        <v>29.69308942890297</v>
       </c>
       <c r="E59">
-        <v>61.33870318163513</v>
+        <v>61.33870318163512</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>36.14076391461941</v>
+        <v>35.41928398374429</v>
       </c>
       <c r="H59">
-        <v>24.53548127265405</v>
+        <v>23.50499105920258</v>
       </c>
       <c r="I59">
-        <v>12.26774063632703</v>
+        <v>11.75249552960129</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3114,22 +3123,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D60">
-        <v>13.63408779701973</v>
+        <v>13.63408779701974</v>
       </c>
       <c r="E60">
         <v>11.36173983084978</v>
       </c>
       <c r="F60">
-        <v>9.089391864679822</v>
+        <v>9.089391864679817</v>
       </c>
       <c r="G60">
-        <v>6.817043898509867</v>
+        <v>6.817043898509868</v>
       </c>
       <c r="H60">
         <v>4.544695932339912</v>
@@ -3152,13 +3161,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D61">
-        <v>135.2059484436126</v>
+        <v>85.76433502742641</v>
       </c>
       <c r="E61">
         <v>50.45037931266093</v>
@@ -3170,7 +3179,7 @@
         <v>3.479167133101981</v>
       </c>
       <c r="H61">
-        <v>1.739583566550992</v>
+        <v>1.739583566550991</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3190,25 +3199,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D62">
-        <v>16.9679167133101</v>
+        <v>16.9679167133102</v>
       </c>
       <c r="E62">
-        <v>7.144385984551662</v>
+        <v>7.144385984551663</v>
       </c>
       <c r="F62">
         <v>5.358289488413747</v>
       </c>
       <c r="G62">
-        <v>33.24134701440762</v>
+        <v>23.94128395835666</v>
       </c>
       <c r="H62">
-        <v>25.52629575730439</v>
+        <v>25.52629575730437</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3228,22 +3237,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D63">
-        <v>104.8079541816979</v>
+        <v>106.4872407120451</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.347741566490292</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>28.083</v>
+        <v>23.83891267004186</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3266,37 +3275,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D64">
-        <v>126.357076459586</v>
+        <v>180.909337515696</v>
       </c>
       <c r="E64">
-        <v>238.4974631010659</v>
+        <v>238.5154341616742</v>
       </c>
       <c r="F64">
-        <v>291.8225527200178</v>
+        <v>293.1882653471125</v>
       </c>
       <c r="G64">
-        <v>338.7856866439607</v>
+        <v>357.1553878292082</v>
       </c>
       <c r="H64">
-        <v>403.4187883954804</v>
+        <v>402.8105743443057</v>
       </c>
       <c r="I64">
-        <v>436.7901138943056</v>
+        <v>436.2303946147203</v>
       </c>
       <c r="J64">
-        <v>466.3676975020267</v>
+        <v>474.6493535515636</v>
       </c>
       <c r="K64">
-        <v>485.946682699026</v>
+        <v>526.0660445051999</v>
       </c>
       <c r="L64">
-        <v>510.3546083125024</v>
+        <v>526.0660445052001</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3304,10 +3313,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D65">
         <v>141.3161627906977</v>
@@ -3342,16 +3351,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D66">
-        <v>8.866657421811304</v>
+        <v>5.095144409730051</v>
       </c>
       <c r="E66">
-        <v>8.244</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3380,10 +3389,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3418,16 +3427,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D68">
-        <v>1.438342578188695</v>
+        <v>5.209855590269947</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>8.244</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3456,37 +3465,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D69">
-        <v>29.35935945927669</v>
+        <v>29.3593594592768</v>
       </c>
       <c r="E69">
-        <v>34.58351967399668</v>
+        <v>34.58351967399681</v>
       </c>
       <c r="F69">
-        <v>18.46073840687188</v>
+        <v>18.46073840687205</v>
       </c>
       <c r="G69">
-        <v>56.80354143023316</v>
+        <v>56.85053160222335</v>
       </c>
       <c r="H69">
-        <v>62.69333932494798</v>
+        <v>62.69472592018703</v>
       </c>
       <c r="I69">
-        <v>115.9653481430301</v>
+        <v>115.9667347382687</v>
       </c>
       <c r="J69">
-        <v>164.6861259769554</v>
+        <v>162.5441444648916</v>
       </c>
       <c r="K69">
-        <v>104.9216750892126</v>
+        <v>91.60543097872031</v>
       </c>
       <c r="L69">
-        <v>53.74814003587318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3494,37 +3503,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D70">
-        <v>47.30119023994578</v>
+        <v>47.30119023994594</v>
       </c>
       <c r="E70">
-        <v>55.71789280810576</v>
+        <v>55.71789280810599</v>
       </c>
       <c r="F70">
-        <v>29.74230076662693</v>
+        <v>29.7423007666272</v>
       </c>
       <c r="G70">
-        <v>91.51681674870899</v>
+        <v>91.5925231369154</v>
       </c>
       <c r="H70">
-        <v>101.0059355790828</v>
+        <v>101.0081695380791</v>
       </c>
       <c r="I70">
-        <v>186.8330608971042</v>
+        <v>186.8352948560996</v>
       </c>
       <c r="J70">
-        <v>265.3276474073172</v>
+        <v>261.8766771934366</v>
       </c>
       <c r="K70">
-        <v>169.0404765326202</v>
+        <v>147.5865276879383</v>
       </c>
       <c r="L70">
-        <v>86.59422561335121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3532,37 +3541,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D71">
-        <v>0.8155377627576833</v>
+        <v>0.8155377627576862</v>
       </c>
       <c r="E71">
-        <v>0.9606533242776853</v>
+        <v>0.960653324277689</v>
       </c>
       <c r="F71">
-        <v>0.512798289079774</v>
+        <v>0.5127982890797791</v>
       </c>
       <c r="G71">
-        <v>1.577876150839809</v>
+        <v>1.579181433395093</v>
       </c>
       <c r="H71">
-        <v>1.741481647915221</v>
+        <v>1.741520164449639</v>
       </c>
       <c r="I71">
-        <v>3.221259670639745</v>
+        <v>3.221298187174011</v>
       </c>
       <c r="J71">
-        <v>4.574614610471021</v>
+        <v>4.515115124024714</v>
       </c>
       <c r="K71">
-        <v>2.914490974700349</v>
+        <v>2.544595304964453</v>
       </c>
       <c r="L71">
-        <v>1.493003889885367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3570,37 +3579,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D72">
-        <v>0.1565844765469604</v>
+        <v>0.1534100684014271</v>
       </c>
       <c r="E72">
-        <v>6.479977773917938</v>
+        <v>6.482031609415818</v>
       </c>
       <c r="F72">
-        <v>11.94989087266859</v>
+        <v>11.95194470816647</v>
       </c>
       <c r="G72">
-        <v>18.64588703845049</v>
+        <v>16.3580309995053</v>
       </c>
       <c r="H72">
-        <v>23.14118456383216</v>
+        <v>23.13612558586723</v>
       </c>
       <c r="I72">
-        <v>25.36502227300596</v>
+        <v>25.3652981925092</v>
       </c>
       <c r="J72">
-        <v>26.78416210482866</v>
+        <v>23.81806151313712</v>
       </c>
       <c r="K72">
-        <v>28.40346910146823</v>
+        <v>24.85303546378456</v>
       </c>
       <c r="L72">
-        <v>30.17064905290617</v>
+        <v>22.38031663230714</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3608,37 +3617,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D73">
-        <v>0.4567330901258685</v>
+        <v>0.4567330901258671</v>
       </c>
       <c r="E73">
-        <v>17.81993887827432</v>
+        <v>17.82558692589349</v>
       </c>
       <c r="F73">
-        <v>32.86219989983859</v>
+        <v>32.86784794745777</v>
       </c>
       <c r="G73">
-        <v>51.27618935573878</v>
+        <v>52.25413872958254</v>
       </c>
       <c r="H73">
-        <v>67.1952548525588</v>
+        <v>67.18056505512389</v>
       </c>
       <c r="I73">
-        <v>69.7538112507663</v>
+        <v>69.75457002940023</v>
       </c>
       <c r="J73">
-        <v>73.65644578827872</v>
+        <v>73.65720456691268</v>
       </c>
       <c r="K73">
-        <v>78.10954002903722</v>
+        <v>78.10954002903725</v>
       </c>
       <c r="L73">
-        <v>82.9692848954919</v>
+        <v>70.33813798725099</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3646,37 +3655,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D74">
-        <v>10.76451646711522</v>
+        <v>10.76451646711353</v>
       </c>
       <c r="E74">
-        <v>59.34255900656308</v>
+        <v>59.34255900656306</v>
       </c>
       <c r="F74">
-        <v>95.41417378940297</v>
+        <v>95.41417378939977</v>
       </c>
       <c r="G74">
-        <v>145.5707316708524</v>
+        <v>148.769620998344</v>
       </c>
       <c r="H74">
-        <v>163.990081077002</v>
+        <v>163.3082005193535</v>
       </c>
       <c r="I74">
-        <v>200.5968771198633</v>
+        <v>199.9149965622186</v>
       </c>
       <c r="J74">
-        <v>232.3655429584809</v>
+        <v>231.6836624008325</v>
       </c>
       <c r="K74">
-        <v>237.4644225037729</v>
+        <v>237.4644225037728</v>
       </c>
       <c r="L74">
-        <v>247.9004987392642</v>
+        <v>247.9004987392643</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3684,34 +3693,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D75">
-        <v>1.477482652349148</v>
+        <v>1.477482652348915</v>
       </c>
       <c r="E75">
-        <v>8.145057118547875</v>
+        <v>8.145057118547864</v>
       </c>
       <c r="F75">
-        <v>13.09606306913375</v>
+        <v>13.0960630691333</v>
       </c>
       <c r="G75">
-        <v>19.98029650384249</v>
+        <v>20.41935974487073</v>
       </c>
       <c r="H75">
-        <v>22.50844250076499</v>
+        <v>22.41485105167596</v>
       </c>
       <c r="I75">
-        <v>27.53290470272633</v>
+        <v>27.43931325363786</v>
       </c>
       <c r="J75">
-        <v>31.89330981783071</v>
+        <v>31.7997183687417</v>
       </c>
       <c r="K75">
-        <v>32.59315602992962</v>
+        <v>32.5931560299296</v>
       </c>
       <c r="L75">
         <v>34.02555865048726</v>
@@ -3722,10 +3731,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3740,19 +3749,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>0.00281732186732176</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.02506142506142508</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>0.06026855036854018</v>
       </c>
       <c r="K76">
-        <v>8.541826367684917E-07</v>
+        <v>0.3049140049140048</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1.232887608208567</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3760,10 +3769,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3778,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>0.09638415233414907</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>0.7685503685503686</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>4.515233415233414</v>
       </c>
       <c r="K77">
-        <v>9.209516299390747E-09</v>
+        <v>28.05208845208845</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>113.4256599551882</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3798,10 +3807,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3813,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.003483606557375132</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.003483606558055645</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.0254123534862187</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.1475868006608109</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>0.3050309810555685</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0.9304371356830335</v>
+        <v>4.841290898959823</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3836,10 +3845,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3851,22 +3860,22 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.1068306010928376</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.1068306010928834</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.7793121735744688</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>4.525995220257515</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>28.67291221922352</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>36.36556619338369</v>
+        <v>79.39717074294109</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3874,37 +3883,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D80">
-        <v>231.2145201384546</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>195.5597358200015</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>197.3640636909184</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>133.4334346111227</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>101.8111295163481</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>77.82505575723306</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>25.84528028514681</v>
+        <v>0.5033070866141731</v>
       </c>
       <c r="K80">
-        <v>16.41966747607171</v>
+        <v>3.126929133858267</v>
       </c>
       <c r="L80">
-        <v>8.387662302726778</v>
+        <v>4.003216980730476</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3912,37 +3921,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D81">
-        <v>6.351679000131352</v>
+        <v>231.2145201384538</v>
       </c>
       <c r="E81">
-        <v>26.13510906405203</v>
+        <v>195.5597358200016</v>
       </c>
       <c r="F81">
-        <v>28.37107194821481</v>
+        <v>197.3640636909184</v>
       </c>
       <c r="G81">
-        <v>35.60693766099523</v>
+        <v>133.4408721185602</v>
       </c>
       <c r="H81">
-        <v>39.56183928648738</v>
+        <v>101.8113483602936</v>
       </c>
       <c r="I81">
-        <v>44.02604650520939</v>
+        <v>77.82527398122382</v>
       </c>
       <c r="J81">
-        <v>43.76714569141541</v>
+        <v>25.50912499449028</v>
       </c>
       <c r="K81">
-        <v>43.69325676336516</v>
+        <v>14.33574819698287</v>
       </c>
       <c r="L81">
-        <v>43.59889045743302</v>
+        <v>14.14309700819721</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3950,37 +3959,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D82">
-        <v>35.82778702163061</v>
+        <v>13.76444106778361</v>
       </c>
       <c r="E82">
-        <v>28.6622296173045</v>
+        <v>26.13510906405203</v>
       </c>
       <c r="F82">
-        <v>21.49667221297838</v>
+        <v>28.37107194821527</v>
       </c>
       <c r="G82">
-        <v>17.54988320439931</v>
+        <v>35.60693766099522</v>
       </c>
       <c r="H82">
-        <v>5.271214642262897</v>
+        <v>39.56183928648738</v>
       </c>
       <c r="I82">
-        <v>5.205499086321879</v>
+        <v>44.0260465052094</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>43.7671456914154</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>43.69325672435208</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>43.59889045743302</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3994,22 +4003,22 @@
         <v>143</v>
       </c>
       <c r="D83">
-        <v>7.412645590682194</v>
+        <v>35.82778702163059</v>
       </c>
       <c r="E83">
-        <v>5.930116472545751</v>
+        <v>28.6622296173045</v>
       </c>
       <c r="F83">
-        <v>4.447587354409317</v>
+        <v>21.49667221297837</v>
       </c>
       <c r="G83">
-        <v>3.631010318151583</v>
+        <v>17.54988320439931</v>
       </c>
       <c r="H83">
-        <v>1.48252911813644</v>
+        <v>5.271214642262897</v>
       </c>
       <c r="I83">
-        <v>3.334772852174954</v>
+        <v>7.076225320468803</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4029,25 +4038,25 @@
         <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84">
-        <v>5.147670549084857</v>
+        <v>7.412645590682213</v>
       </c>
       <c r="E84">
-        <v>4.118136439267887</v>
+        <v>5.930116472545736</v>
       </c>
       <c r="F84">
-        <v>3.088602329450916</v>
+        <v>4.447587354409318</v>
       </c>
       <c r="G84">
-        <v>2.521534943160821</v>
+        <v>3.631010318151582</v>
       </c>
       <c r="H84">
-        <v>1.029534109816972</v>
+        <v>1.482529118136439</v>
       </c>
       <c r="I84">
-        <v>1.016699040297242</v>
+        <v>1.464046618028028</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4070,22 +4079,22 @@
         <v>149</v>
       </c>
       <c r="D85">
-        <v>4.324043261231281</v>
+        <v>5.147670549084857</v>
       </c>
       <c r="E85">
-        <v>3.459234608985025</v>
+        <v>4.118136439267886</v>
       </c>
       <c r="F85">
-        <v>2.594425956738769</v>
+        <v>3.088602329450916</v>
       </c>
       <c r="G85">
-        <v>2.11808935225509</v>
+        <v>2.521534943160819</v>
       </c>
       <c r="H85">
-        <v>2.759151414309488</v>
+        <v>1.029534109816969</v>
       </c>
       <c r="I85">
-        <v>0.8540271938496834</v>
+        <v>1.016699040297242</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4102,28 +4111,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D86">
-        <v>8.532204637467791</v>
+        <v>4.324043261231281</v>
       </c>
       <c r="E86">
-        <v>6.825763709974236</v>
+        <v>3.459234608985025</v>
       </c>
       <c r="F86">
-        <v>5.119322782480675</v>
+        <v>2.594425956738768</v>
       </c>
       <c r="G86">
-        <v>3.412881854987138</v>
+        <v>2.118089352255089</v>
       </c>
       <c r="H86">
-        <v>0.7895472948104524</v>
+        <v>2.759151414309492</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>0.8540271938496831</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4146,19 +4155,19 @@
         <v>143</v>
       </c>
       <c r="D87">
-        <v>1.11428045638572</v>
+        <v>8.532204637467791</v>
       </c>
       <c r="E87">
-        <v>0.8914243651085758</v>
+        <v>6.825763709974227</v>
       </c>
       <c r="F87">
-        <v>0.6685682738314317</v>
+        <v>5.119322782480675</v>
       </c>
       <c r="G87">
-        <v>0.4457121825542887</v>
+        <v>3.412881854987114</v>
       </c>
       <c r="H87">
-        <v>0.2228560912771439</v>
+        <v>0.7895472948104524</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4181,22 +4190,22 @@
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D88">
-        <v>0.764078027235922</v>
+        <v>1.11428045638572</v>
       </c>
       <c r="E88">
-        <v>0.6112624217887377</v>
+        <v>0.8914243651085781</v>
       </c>
       <c r="F88">
-        <v>0.4584468163415532</v>
+        <v>0.6685682738314317</v>
       </c>
       <c r="G88">
-        <v>0.3056312108943606</v>
+        <v>0.4457121825542891</v>
       </c>
       <c r="H88">
-        <v>0.1528156054471843</v>
+        <v>0.2228560912771439</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -4222,19 +4231,19 @@
         <v>149</v>
       </c>
       <c r="D89">
-        <v>1.3052999631947</v>
+        <v>0.764078027235922</v>
       </c>
       <c r="E89">
-        <v>1.04423997055576</v>
+        <v>0.6112624217887376</v>
       </c>
       <c r="F89">
-        <v>0.7831799779168197</v>
+        <v>0.458446816341553</v>
       </c>
       <c r="G89">
-        <v>0.5221199852778812</v>
+        <v>0.3056312108943688</v>
       </c>
       <c r="H89">
-        <v>1.177953625322045</v>
+        <v>0.1528156054471852</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4254,28 +4263,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D90">
-        <v>2.557763776565736</v>
+        <v>1.3052999631947</v>
       </c>
       <c r="E90">
-        <v>1.844659593437046</v>
+        <v>1.04423997055576</v>
       </c>
       <c r="F90">
-        <v>1.705175851043821</v>
+        <v>0.7831799779168197</v>
       </c>
       <c r="G90">
-        <v>1.278881888282867</v>
+        <v>0.5221199852778799</v>
       </c>
       <c r="H90">
-        <v>0.8525879255219109</v>
+        <v>1.177953625322044</v>
       </c>
       <c r="I90">
-        <v>0.4262939627609556</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4298,22 +4307,22 @@
         <v>143</v>
       </c>
       <c r="D91">
-        <v>1.459733872484483</v>
+        <v>2.557763776565732</v>
       </c>
       <c r="E91">
-        <v>1.052760273022153</v>
+        <v>1.844659593437041</v>
       </c>
       <c r="F91">
-        <v>0.9731559149896558</v>
+        <v>1.70517585104382</v>
       </c>
       <c r="G91">
-        <v>0.7298669362422417</v>
+        <v>1.278881888282866</v>
       </c>
       <c r="H91">
-        <v>0.486577957494826</v>
+        <v>0.8525879255219109</v>
       </c>
       <c r="I91">
-        <v>0.2432889787474138</v>
+        <v>0.4262939627609557</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4330,28 +4339,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D92">
-        <v>57.5176547515257</v>
+        <v>1.459733872484484</v>
       </c>
       <c r="E92">
-        <v>47.93137895960476</v>
+        <v>1.052760273022156</v>
       </c>
       <c r="F92">
-        <v>38.34510316768381</v>
+        <v>0.9731559149896558</v>
       </c>
       <c r="G92">
-        <v>28.75882737576287</v>
+        <v>0.7298669362422421</v>
       </c>
       <c r="H92">
-        <v>2.095604475443185</v>
+        <v>0.4865779574948269</v>
       </c>
       <c r="I92">
-        <v>1.047802237721593</v>
+        <v>0.2432889787474149</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4374,22 +4383,22 @@
         <v>143</v>
       </c>
       <c r="D93">
-        <v>3.544692676547514</v>
+        <v>57.51765475152572</v>
       </c>
       <c r="E93">
-        <v>2.953910563789595</v>
+        <v>47.93137895960476</v>
       </c>
       <c r="F93">
-        <v>2.363128451031677</v>
+        <v>38.34510316768381</v>
       </c>
       <c r="G93">
-        <v>1.772346338273757</v>
+        <v>28.75882737576286</v>
       </c>
       <c r="H93">
-        <v>18.25851133391456</v>
+        <v>2.095604475443185</v>
       </c>
       <c r="I93">
-        <v>9.129255666957285</v>
+        <v>9.586275791920958</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4406,28 +4415,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D94">
-        <v>188.0662112145743</v>
+        <v>3.544692676547514</v>
       </c>
       <c r="E94">
-        <v>161.0673152741832</v>
+        <v>2.953910563789596</v>
       </c>
       <c r="F94">
-        <v>131.5194968547042</v>
+        <v>2.363128451031677</v>
       </c>
       <c r="G94">
-        <v>81.09875000000002</v>
+        <v>1.772346338273752</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>18.25851133391456</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.5907821127579195</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4444,25 +4453,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D95">
-        <v>24.43651162790697</v>
+        <v>188.0662112145743</v>
       </c>
       <c r="E95">
-        <v>19.54920930232558</v>
+        <v>161.0673152741832</v>
       </c>
       <c r="F95">
-        <v>14.66190697674418</v>
+        <v>131.5194968547042</v>
       </c>
       <c r="G95">
-        <v>9.77460465116279</v>
+        <v>81.09875000000002</v>
       </c>
       <c r="H95">
-        <v>4.887302325581397</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4482,25 +4491,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>24.43651162790697</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>19.54920930232558</v>
       </c>
       <c r="F96">
-        <v>1.801199999999999</v>
+        <v>14.66190697674418</v>
       </c>
       <c r="G96">
-        <v>1.2008</v>
+        <v>9.77460465116279</v>
       </c>
       <c r="H96">
-        <v>0.6003999999999998</v>
+        <v>4.887302325581397</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4523,7 +4532,7 @@
         <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D97">
         <v>3.002</v>
@@ -4558,37 +4567,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D98">
-        <v>0.6294065294117662</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>4.108034180036881</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>6.349477084458855</v>
+        <v>1.801199999999999</v>
       </c>
       <c r="G98">
-        <v>11.07206210149304</v>
+        <v>1.2008</v>
       </c>
       <c r="H98">
-        <v>17.79481728074997</v>
+        <v>0.6003999999999998</v>
       </c>
       <c r="I98">
-        <v>20.57417120710969</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>26.16501903583314</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>26.16501903583313</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>23.79629868110882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4602,31 +4611,31 @@
         <v>143</v>
       </c>
       <c r="D99">
-        <v>0.1864908235294122</v>
+        <v>0.6294065294117664</v>
       </c>
       <c r="E99">
-        <v>1.217195312603521</v>
+        <v>4.108034180036881</v>
       </c>
       <c r="F99">
-        <v>1.881326543543365</v>
+        <v>6.349477084458856</v>
       </c>
       <c r="G99">
-        <v>3.280610993034974</v>
+        <v>11.07206210149305</v>
       </c>
       <c r="H99">
-        <v>5.272538453555549</v>
+        <v>17.79481728074997</v>
       </c>
       <c r="I99">
-        <v>6.096050728032496</v>
+        <v>20.57417120710968</v>
       </c>
       <c r="J99">
-        <v>7.752598232839453</v>
+        <v>25.52247676905121</v>
       </c>
       <c r="K99">
-        <v>7.752598232839449</v>
+        <v>25.4702857566868</v>
       </c>
       <c r="L99">
-        <v>7.050755164772981</v>
+        <v>17.15615834338967</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4637,34 +4646,34 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D100">
-        <v>1.352058470588238</v>
+        <v>0.1864908235294122</v>
       </c>
       <c r="E100">
-        <v>8.82466601637552</v>
+        <v>1.217195312603521</v>
       </c>
       <c r="F100">
-        <v>13.63961744068939</v>
+        <v>1.881326543543364</v>
       </c>
       <c r="G100">
-        <v>23.78442969950356</v>
+        <v>3.280610993034979</v>
       </c>
       <c r="H100">
-        <v>38.2259037882777</v>
+        <v>5.27253845355555</v>
       </c>
       <c r="I100">
-        <v>44.1963677782356</v>
+        <v>6.096050728032502</v>
       </c>
       <c r="J100">
-        <v>56.20633718808599</v>
+        <v>7.562215338978136</v>
       </c>
       <c r="K100">
-        <v>56.20633718808598</v>
+        <v>7.546751335314608</v>
       </c>
       <c r="L100">
-        <v>51.1179749446041</v>
+        <v>5.08330617581916</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4672,37 +4681,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D101">
-        <v>9.608734034482755</v>
+        <v>1.352058470588238</v>
       </c>
       <c r="E101">
-        <v>11.23139123480008</v>
+        <v>8.824666016375522</v>
       </c>
       <c r="F101">
-        <v>12.00476062234037</v>
+        <v>13.63961744068939</v>
       </c>
       <c r="G101">
-        <v>13.28433017214931</v>
+        <v>23.78442969950359</v>
       </c>
       <c r="H101">
-        <v>12.11725813766655</v>
+        <v>38.22590378827772</v>
       </c>
       <c r="I101">
-        <v>11.93340044229373</v>
+        <v>44.19636777823559</v>
       </c>
       <c r="J101">
-        <v>11.82447221734014</v>
+        <v>54.82606120759149</v>
       </c>
       <c r="K101">
-        <v>11.77236</v>
+        <v>54.7139471810309</v>
       </c>
       <c r="L101">
-        <v>11.74692</v>
+        <v>36.8539697746889</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4716,31 +4725,31 @@
         <v>143</v>
       </c>
       <c r="D102">
-        <v>0.3351883965517239</v>
+        <v>9.608734034482763</v>
       </c>
       <c r="E102">
-        <v>0.3917927174930259</v>
+        <v>11.23139123480009</v>
       </c>
       <c r="F102">
-        <v>0.4187707193839663</v>
+        <v>12.00476062234037</v>
       </c>
       <c r="G102">
-        <v>0.4634068664703245</v>
+        <v>13.28433017214931</v>
       </c>
       <c r="H102">
-        <v>0.4226950513139497</v>
+        <v>12.11725813766655</v>
       </c>
       <c r="I102">
-        <v>0.4162814107776887</v>
+        <v>11.93340044229373</v>
       </c>
       <c r="J102">
-        <v>0.4124815889769818</v>
+        <v>11.82447221734015</v>
       </c>
       <c r="K102">
-        <v>0.4106637209302326</v>
+        <v>11.77236</v>
       </c>
       <c r="L102">
-        <v>0.4097762790697673</v>
+        <v>11.74692</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4748,37 +4757,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.3351883965517243</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.3917927174930263</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.4187707193839663</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.4634068664703247</v>
       </c>
       <c r="H103">
-        <v>1.477863274094385</v>
+        <v>0.4226950513139497</v>
       </c>
       <c r="I103">
-        <v>1.477863274094385</v>
+        <v>0.416281410777688</v>
       </c>
       <c r="J103">
-        <v>2.498865581040683</v>
+        <v>0.4124815889769817</v>
       </c>
       <c r="K103">
-        <v>2.494625952946142</v>
+        <v>0.4106637209302325</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>0.4097762790697673</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4786,10 +4795,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4804,19 +4813,19 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1.477863274094384</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1.477863274094384</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2.498865581040686</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>2.49462595294615</v>
       </c>
       <c r="L104">
-        <v>1.86614077140582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4824,37 +4833,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D105">
-        <v>3.021016778305197</v>
+        <v>3.763972854812396</v>
       </c>
       <c r="E105">
         <v>3.1901439454833</v>
       </c>
       <c r="F105">
-        <v>4.818647158180914</v>
+        <v>4.818647158180915</v>
       </c>
       <c r="G105">
-        <v>4.248652783080192</v>
+        <v>4.248652783080193</v>
       </c>
       <c r="H105">
-        <v>4.676039174874456</v>
+        <v>4.676039174874457</v>
       </c>
       <c r="I105">
-        <v>5.159189959821125</v>
+        <v>5.159189959821127</v>
       </c>
       <c r="J105">
-        <v>4.862382234279727</v>
+        <v>4.862382234279729</v>
       </c>
       <c r="K105">
-        <v>4.816727903715986</v>
+        <v>4.816727903715987</v>
       </c>
       <c r="L105">
-        <v>4.783757067595735</v>
+        <v>4.783757067595737</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4862,37 +4871,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D106">
-        <v>0.4032828058727569</v>
+        <v>0.4032828058727566</v>
       </c>
       <c r="E106">
         <v>0.478521591822495</v>
       </c>
       <c r="F106">
-        <v>0.5162836240908124</v>
+        <v>0.5162836240908125</v>
       </c>
       <c r="G106">
-        <v>0.6372979174620287</v>
+        <v>0.6372979174620288</v>
       </c>
       <c r="H106">
-        <v>0.7014058762311683</v>
+        <v>0.7014058762311682</v>
       </c>
       <c r="I106">
-        <v>0.7738784939731688</v>
+        <v>0.7738784939731689</v>
       </c>
       <c r="J106">
-        <v>0.7293573351419592</v>
+        <v>0.7293573351419593</v>
       </c>
       <c r="K106">
-        <v>0.7225091855573978</v>
+        <v>0.722509185557398</v>
       </c>
       <c r="L106">
-        <v>0.7175635601393605</v>
+        <v>0.7175635601393607</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4900,13 +4909,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D107">
-        <v>0.7429560765071982</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>1.276057578193319</v>
@@ -4915,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>1.699461113232075</v>
+        <v>1.699461113232074</v>
       </c>
       <c r="H107">
         <v>1.87041566994978</v>
@@ -4927,7 +4936,7 @@
         <v>1.944952893711889</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1.926691161486392</v>
       </c>
       <c r="L107">
         <v>1.913502827038293</v>
@@ -4938,10 +4947,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D108">
         <v>0.2688552039151713</v>
@@ -4950,10 +4959,10 @@
         <v>0.3190143945483301</v>
       </c>
       <c r="F108">
-        <v>0.3441890827272083</v>
+        <v>0.3441890827272082</v>
       </c>
       <c r="G108">
-        <v>0.4248652783080192</v>
+        <v>0.4248652783080193</v>
       </c>
       <c r="H108">
         <v>0.4676039174874457</v>
@@ -4965,10 +4974,10 @@
         <v>0.4862382234279728</v>
       </c>
       <c r="K108">
-        <v>2.408363951857991</v>
+        <v>0.4816727903715987</v>
       </c>
       <c r="L108">
-        <v>0.4783757067595737</v>
+        <v>0.4783757067595736</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4976,10 +4985,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4991,22 +5000,22 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>36.46535745018776</v>
+        <v>36.46535745018767</v>
       </c>
       <c r="H109">
         <v>102.5317357145809</v>
       </c>
       <c r="I109">
-        <v>100.2567175952083</v>
+        <v>100.2567175952082</v>
       </c>
       <c r="J109">
-        <v>93.32893016667715</v>
+        <v>95.0165465222596</v>
       </c>
       <c r="K109">
-        <v>92.08448783947877</v>
+        <v>93.93962824171774</v>
       </c>
       <c r="L109">
-        <v>89.55077891944428</v>
+        <v>105.0242146043117</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5014,37 +5023,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D110">
         <v>15.76190135173043</v>
       </c>
       <c r="E110">
-        <v>12.9305057973338</v>
+        <v>12.93050579733379</v>
       </c>
       <c r="F110">
-        <v>10.62799699035878</v>
+        <v>10.62799699035877</v>
       </c>
       <c r="G110">
-        <v>10.85688951679113</v>
+        <v>10.85688951679112</v>
       </c>
       <c r="H110">
-        <v>5.752620553378286</v>
+        <v>5.75262055337829</v>
       </c>
       <c r="I110">
-        <v>9.110960631018477</v>
+        <v>9.110960631018475</v>
       </c>
       <c r="J110">
-        <v>2.467874812053263</v>
+        <v>2.637571614147587</v>
       </c>
       <c r="K110">
-        <v>2.337286313827053</v>
+        <v>2.520657568865274</v>
       </c>
       <c r="L110">
-        <v>2.277340498509769</v>
+        <v>2.459844160031235</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5052,10 +5061,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D111">
         <v>46.92589376053964</v>
@@ -5090,25 +5099,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D112">
-        <v>9.138111298482293</v>
+        <v>9.138111298482306</v>
       </c>
       <c r="E112">
-        <v>7.310489038785834</v>
+        <v>7.310489038785849</v>
       </c>
       <c r="F112">
         <v>5.482866779089377</v>
       </c>
       <c r="G112">
-        <v>3.655244519392917</v>
+        <v>3.655244519392915</v>
       </c>
       <c r="H112">
-        <v>3.090035413153457</v>
+        <v>3.090035413153455</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5128,13 +5137,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D113">
-        <v>24.74059021922428</v>
+        <v>24.74059021922429</v>
       </c>
       <c r="E113">
         <v>19.79247217537943</v>
@@ -5143,10 +5152,10 @@
         <v>14.84435413153457</v>
       </c>
       <c r="G113">
-        <v>9.896236087689713</v>
+        <v>9.896236087689715</v>
       </c>
       <c r="H113">
-        <v>4.948118043844857</v>
+        <v>4.948118043844858</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5166,19 +5175,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D114">
         <v>72.10646711635748</v>
       </c>
       <c r="E114">
-        <v>57.685173693086</v>
+        <v>57.68517369308599</v>
       </c>
       <c r="F114">
-        <v>43.2638802698145</v>
+        <v>43.26388026981451</v>
       </c>
       <c r="G114">
         <v>26.31776053962901</v>
@@ -5204,16 +5213,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D115">
-        <v>157.0253292452964</v>
+        <v>135.4711190796106</v>
       </c>
       <c r="E115">
-        <v>135.4468184588655</v>
+        <v>135.4711190796105</v>
       </c>
       <c r="F115">
         <v>110.4942328230687</v>
@@ -5242,25 +5251,25 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D116">
-        <v>22.95446606906432</v>
+        <v>19.80360252194307</v>
       </c>
       <c r="E116">
-        <v>19.80005017929217</v>
+        <v>19.80360252194306</v>
       </c>
       <c r="F116">
-        <v>16.15240121039516</v>
+        <v>16.15240121039514</v>
       </c>
       <c r="G116">
-        <v>5.100758276966894</v>
+        <v>5.100758276966889</v>
       </c>
       <c r="H116">
-        <v>2.550379138483448</v>
+        <v>2.550379138483447</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -5280,10 +5289,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -5295,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>12.99827696689213</v>
+        <v>12.99827696689214</v>
       </c>
       <c r="H117">
-        <v>6.499138483446064</v>
+        <v>6.499138483446072</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5318,16 +5327,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D118">
-        <v>82.76793117853219</v>
+        <v>71.40672345379474</v>
       </c>
       <c r="E118">
-        <v>71.39391461515009</v>
+        <v>71.40672345379471</v>
       </c>
       <c r="F118">
         <v>58.24142577429691</v>
@@ -5356,25 +5365,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D119">
-        <v>241.8909270358841</v>
+        <v>208.6875712234001</v>
       </c>
       <c r="E119">
-        <v>208.6501371373974</v>
+        <v>208.6875712234</v>
       </c>
       <c r="F119">
-        <v>170.2117265930936</v>
+        <v>170.2117265930937</v>
       </c>
       <c r="G119">
-        <v>40.75279458882166</v>
+        <v>40.75279458882165</v>
       </c>
       <c r="H119">
-        <v>20.37639729441085</v>
+        <v>20.37639729441083</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5394,13 +5403,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D120">
-        <v>93.93009954128441</v>
+        <v>93.93009954128442</v>
       </c>
       <c r="E120">
         <v>78.27508295107033</v>
@@ -5409,7 +5418,7 @@
         <v>62.62006636085627</v>
       </c>
       <c r="G120">
-        <v>46.9650497706422</v>
+        <v>46.96504977064221</v>
       </c>
       <c r="H120">
         <v>31.31003318042814</v>
@@ -5432,13 +5441,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D121">
-        <v>10.17106605504587</v>
+        <v>10.17106605504584</v>
       </c>
       <c r="E121">
         <v>8.475888379204893</v>
@@ -5447,10 +5456,10 @@
         <v>6.780710703363914</v>
       </c>
       <c r="G121">
-        <v>5.085533027522935</v>
+        <v>5.085533027522919</v>
       </c>
       <c r="H121">
-        <v>3.390355351681954</v>
+        <v>3.390355351681951</v>
       </c>
       <c r="I121">
         <v>1.695177675840978</v>
@@ -5470,10 +5479,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D122">
         <v>38.50692522935779</v>
@@ -5482,16 +5491,16 @@
         <v>32.08910435779816</v>
       </c>
       <c r="F122">
-        <v>25.67128348623853</v>
+        <v>25.67128348623854</v>
       </c>
       <c r="G122">
         <v>19.2534626146789</v>
       </c>
       <c r="H122">
-        <v>12.83564174311926</v>
+        <v>12.83564174311927</v>
       </c>
       <c r="I122">
-        <v>6.417820871559628</v>
+        <v>6.41782087155963</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5508,28 +5517,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>99.55487847989397</v>
+        <v>99.5548784798939</v>
       </c>
       <c r="E123">
-        <v>82.96239873324494</v>
+        <v>82.96239873324492</v>
       </c>
       <c r="F123">
         <v>66.36991898659595</v>
       </c>
       <c r="G123">
-        <v>49.77743923994697</v>
+        <v>49.77743923994695</v>
       </c>
       <c r="H123">
         <v>25.8942517307409</v>
       </c>
       <c r="I123">
-        <v>12.94712586537045</v>
+        <v>16.59247974664899</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5546,28 +5555,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D124">
-        <v>5.846005302695535</v>
+        <v>5.846005302695562</v>
       </c>
       <c r="E124">
-        <v>4.871671085579604</v>
+        <v>4.87167108557963</v>
       </c>
       <c r="F124">
         <v>3.897336868463691</v>
       </c>
       <c r="G124">
-        <v>2.923002651347768</v>
+        <v>2.923002651347781</v>
       </c>
       <c r="H124">
         <v>9.239376196788923</v>
       </c>
       <c r="I124">
-        <v>4.619688098394461</v>
+        <v>0.9743342171159238</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5584,10 +5593,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D125">
         <v>227.0210837438424</v>
@@ -5602,7 +5611,7 @@
         <v>90.80843349753695</v>
       </c>
       <c r="H125">
-        <v>41.43728866995072</v>
+        <v>41.43728866995073</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5622,13 +5631,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D126">
-        <v>25.22104433497537</v>
+        <v>25.2210443349754</v>
       </c>
       <c r="E126">
         <v>20.1768354679803</v>
@@ -5660,25 +5669,25 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D127">
         <v>18.21871921182267</v>
       </c>
       <c r="E127">
-        <v>14.57497536945813</v>
+        <v>14.57497536945809</v>
       </c>
       <c r="F127">
-        <v>10.9312315270936</v>
+        <v>10.93123152709359</v>
       </c>
       <c r="G127">
-        <v>7.287487684729066</v>
+        <v>7.287487684729067</v>
       </c>
       <c r="H127">
-        <v>3.643743842364531</v>
+        <v>3.643743842364533</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5698,16 +5707,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D128">
         <v>27.348</v>
       </c>
       <c r="E128">
-        <v>0.4131941522221288</v>
+        <v>9.73934574513075</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5736,10 +5745,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -5774,16 +5783,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>21.46520584777787</v>
+        <v>12.13905425486925</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5812,37 +5821,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D131">
-        <v>11.87964726177194</v>
+        <v>17.1389539733502</v>
       </c>
       <c r="E131">
-        <v>19.86663816364363</v>
+        <v>20.00420572469195</v>
       </c>
       <c r="F131">
-        <v>25.91366464256028</v>
+        <v>26.05684702122181</v>
       </c>
       <c r="G131">
-        <v>47.81154257958286</v>
+        <v>47.95472495824436</v>
       </c>
       <c r="H131">
-        <v>53.66983148612376</v>
+        <v>53.81301386478528</v>
       </c>
       <c r="I131">
-        <v>59.61893925755135</v>
+        <v>59.76212163621283</v>
       </c>
       <c r="J131">
-        <v>59.07692173265368</v>
+        <v>58.69009645821041</v>
       </c>
       <c r="K131">
-        <v>59.21298005590947</v>
+        <v>59.21326297307603</v>
       </c>
       <c r="L131">
-        <v>59.24883108787898</v>
+        <v>59.24883108787896</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5850,34 +5859,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D132">
-        <v>23.75929452354387</v>
+        <v>34.27790794670042</v>
       </c>
       <c r="E132">
-        <v>39.73327632728726</v>
+        <v>40.00841144938389</v>
       </c>
       <c r="F132">
-        <v>51.82732928512056</v>
+        <v>52.11369404244362</v>
       </c>
       <c r="G132">
-        <v>95.62308515916568</v>
+        <v>95.90944991648873</v>
       </c>
       <c r="H132">
-        <v>107.3396629722475</v>
+        <v>107.6260277295706</v>
       </c>
       <c r="I132">
-        <v>119.2378785151026</v>
+        <v>119.5242432724256</v>
       </c>
       <c r="J132">
-        <v>118.1538434653074</v>
+        <v>117.3801929164208</v>
       </c>
       <c r="K132">
-        <v>118.4259601118189</v>
+        <v>118.4265259461521</v>
       </c>
       <c r="L132">
         <v>118.4976621757579</v>
@@ -5888,37 +5897,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D133">
-        <v>92.06726627873249</v>
+        <v>132.8268932934641</v>
       </c>
       <c r="E133">
-        <v>153.9664457682381</v>
+        <v>155.0325943663626</v>
       </c>
       <c r="F133">
-        <v>200.8309009798422</v>
+        <v>201.940564414469</v>
       </c>
       <c r="G133">
-        <v>370.5394549917669</v>
+        <v>371.6491184263939</v>
       </c>
       <c r="H133">
-        <v>415.9411940174589</v>
+        <v>417.050857452086</v>
       </c>
       <c r="I133">
-        <v>462.0467792460227</v>
+        <v>463.1564426806495</v>
       </c>
       <c r="J133">
-        <v>457.8461434280658</v>
+        <v>454.8482475511306</v>
       </c>
       <c r="K133">
-        <v>458.9005954332986</v>
+        <v>458.9027880413394</v>
       </c>
       <c r="L133">
-        <v>459.1784409310619</v>
+        <v>459.1784409310617</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5926,37 +5935,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D134">
-        <v>7.424779538607458</v>
+        <v>10.71184623334388</v>
       </c>
       <c r="E134">
-        <v>12.41664885227726</v>
+        <v>12.50262857793246</v>
       </c>
       <c r="F134">
-        <v>16.19604040160018</v>
+        <v>16.28552938826364</v>
       </c>
       <c r="G134">
-        <v>29.88221411223928</v>
+        <v>29.97170309890273</v>
       </c>
       <c r="H134">
-        <v>33.54364467882734</v>
+        <v>33.6331336654908</v>
       </c>
       <c r="I134">
-        <v>37.26183703596956</v>
+        <v>37.35132602263302</v>
       </c>
       <c r="J134">
-        <v>36.92307608290855</v>
+        <v>36.68131028638151</v>
       </c>
       <c r="K134">
-        <v>37.00811253494344</v>
+        <v>37.00828935817253</v>
       </c>
       <c r="L134">
-        <v>37.03051942992438</v>
+        <v>37.03051942992433</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5964,37 +5973,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D135">
-        <v>0.4433060799999984</v>
+        <v>0.4433060800000013</v>
       </c>
       <c r="E135">
-        <v>1.882996097043161</v>
+        <v>1.882996097043166</v>
       </c>
       <c r="F135">
-        <v>2.934327152467725</v>
+        <v>2.934327152467707</v>
       </c>
       <c r="G135">
-        <v>4.60755066879452</v>
+        <v>4.607550668794518</v>
       </c>
       <c r="H135">
-        <v>5.856646473960983</v>
+        <v>5.856646473960984</v>
       </c>
       <c r="I135">
-        <v>7.076018379600733</v>
+        <v>7.0760183796007</v>
       </c>
       <c r="J135">
-        <v>8.201454335112706</v>
+        <v>8.201454335112679</v>
       </c>
       <c r="K135">
-        <v>8.255182010940992</v>
+        <v>8.25518201094099</v>
       </c>
       <c r="L135">
-        <v>8.30184217032188</v>
+        <v>8.301842170321882</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6002,37 +6011,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D136">
         <v>0.1477686933333337</v>
       </c>
       <c r="E136">
-        <v>0.6276653656810537</v>
+        <v>0.6276653656810555</v>
       </c>
       <c r="F136">
-        <v>0.978109050822586</v>
+        <v>0.9781090508225706</v>
       </c>
       <c r="G136">
-        <v>1.535850222931514</v>
+        <v>1.535850222931506</v>
       </c>
       <c r="H136">
         <v>1.952215491320328</v>
       </c>
       <c r="I136">
-        <v>2.358672793200244</v>
+        <v>2.358672793200233</v>
       </c>
       <c r="J136">
-        <v>2.733818111704242</v>
+        <v>2.733818111704225</v>
       </c>
       <c r="K136">
-        <v>2.751727336980356</v>
+        <v>2.751727336980331</v>
       </c>
       <c r="L136">
-        <v>2.767280723440626</v>
+        <v>2.767280723440627</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6040,37 +6049,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D137">
-        <v>2.068761706666672</v>
+        <v>2.068761706666661</v>
       </c>
       <c r="E137">
-        <v>8.787315119534748</v>
+        <v>8.787315119534773</v>
       </c>
       <c r="F137">
-        <v>13.69352671151609</v>
+        <v>13.69352671151599</v>
       </c>
       <c r="G137">
-        <v>21.50190312104108</v>
+        <v>21.50190312104106</v>
       </c>
       <c r="H137">
         <v>27.33101687848458</v>
       </c>
       <c r="I137">
-        <v>33.02141910480343</v>
+        <v>33.02141910480325</v>
       </c>
       <c r="J137">
-        <v>38.27345356385927</v>
+        <v>38.27345356385914</v>
       </c>
       <c r="K137">
-        <v>38.52418271772464</v>
+        <v>38.52418271772461</v>
       </c>
       <c r="L137">
-        <v>38.74193012816875</v>
+        <v>38.74193012816873</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6078,37 +6087,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D138">
         <v>11.96926416000003</v>
       </c>
       <c r="E138">
-        <v>50.84089462016534</v>
+        <v>50.84089462016549</v>
       </c>
       <c r="F138">
-        <v>79.22683311662878</v>
+        <v>79.22683311662819</v>
       </c>
       <c r="G138">
         <v>124.403868057452</v>
       </c>
       <c r="H138">
-        <v>158.1294547969466</v>
+        <v>158.1294547969465</v>
       </c>
       <c r="I138">
-        <v>191.0524962492198</v>
+        <v>191.052496249219</v>
       </c>
       <c r="J138">
-        <v>221.4392670480431</v>
+        <v>221.4392670480424</v>
       </c>
       <c r="K138">
         <v>222.8899142954068</v>
       </c>
       <c r="L138">
-        <v>224.1497385986909</v>
+        <v>224.1497385986908</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6116,37 +6125,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139">
-        <v>15.21375402505399</v>
+        <v>31.03429429760009</v>
       </c>
       <c r="E139">
-        <v>61.50605334130881</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>95.22683641313635</v>
+        <v>31.03429429760009</v>
       </c>
       <c r="G139">
-        <v>148.9076967964548</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>188.8979457714956</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>227.7627317631658</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>263.6010295430406</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>265.2436643338135</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>266.6759369691661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6154,37 +6163,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D140">
-        <v>230.7641976944882</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>286.2912639009851</v>
+        <v>61.09055165575061</v>
       </c>
       <c r="F140">
-        <v>320.4028614966758</v>
+        <v>80.40649195947996</v>
       </c>
       <c r="G140">
-        <v>390.2389648381998</v>
+        <v>148.1191613340338</v>
       </c>
       <c r="H140">
-        <v>413.2258114165371</v>
+        <v>188.1094103090742</v>
       </c>
       <c r="I140">
-        <v>456.113808762434</v>
+        <v>228.5103423382256</v>
       </c>
       <c r="J140">
-        <v>459.5899155323227</v>
+        <v>263.2279957661777</v>
       </c>
       <c r="K140">
-        <v>463.6971159446178</v>
+        <v>265.5978653374762</v>
       </c>
       <c r="L140">
-        <v>468.594916731783</v>
+        <v>266.6759369691658</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6192,37 +6201,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D141">
-        <v>435.8891411042944</v>
+        <v>230.7641976944882</v>
       </c>
       <c r="E141">
-        <v>348.7113128834355</v>
+        <v>286.2912639009852</v>
       </c>
       <c r="F141">
-        <v>261.5334846625767</v>
+        <v>320.4028614966759</v>
       </c>
       <c r="G141">
-        <v>174.3556564417178</v>
+        <v>390.2389648381998</v>
       </c>
       <c r="H141">
-        <v>87.17782822085887</v>
+        <v>413.2258114165372</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>456.1138087624345</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>459.5899155323229</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>463.6971159446176</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>468.5949167317829</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6230,25 +6239,25 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D142">
-        <v>8.080000000000002</v>
+        <v>435.8891411042944</v>
       </c>
       <c r="E142">
-        <v>6.464</v>
+        <v>348.7113128834355</v>
       </c>
       <c r="F142">
-        <v>4.848</v>
+        <v>261.5334846625767</v>
       </c>
       <c r="G142">
-        <v>3.232000000000001</v>
+        <v>174.3556564417178</v>
       </c>
       <c r="H142">
-        <v>1.616000000000001</v>
+        <v>87.17782822085888</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -6268,25 +6277,25 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D143">
-        <v>29.0985</v>
+        <v>8.080000000000002</v>
       </c>
       <c r="E143">
-        <v>12.252</v>
+        <v>6.464</v>
       </c>
       <c r="F143">
-        <v>9.227399999999992</v>
+        <v>4.848000000000002</v>
       </c>
       <c r="G143">
-        <v>6.126000000000001</v>
+        <v>3.232</v>
       </c>
       <c r="H143">
-        <v>3.062999999999998</v>
+        <v>1.616000000000001</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6306,25 +6315,25 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D144">
-        <v>0.9105882352941178</v>
+        <v>29.0985</v>
       </c>
       <c r="E144">
-        <v>0.7284705882352941</v>
+        <v>12.252</v>
       </c>
       <c r="F144">
-        <v>0.5463529411764707</v>
+        <v>9.227400000000001</v>
       </c>
       <c r="G144">
-        <v>0.3642352941176471</v>
+        <v>6.126000000000001</v>
       </c>
       <c r="H144">
-        <v>0.1821176470588236</v>
+        <v>3.062999999999998</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6344,25 +6353,25 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C145" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D145">
-        <v>2.383941176470588</v>
+        <v>0.9105882352941178</v>
       </c>
       <c r="E145">
-        <v>1.057976470588252</v>
+        <v>0.7284705882352942</v>
       </c>
       <c r="F145">
-        <v>0.7528235294117649</v>
+        <v>0.5463529411764707</v>
       </c>
       <c r="G145">
-        <v>0.5289882352941344</v>
+        <v>0.3642352941176472</v>
       </c>
       <c r="H145">
-        <v>0.2509411764705883</v>
+        <v>0.1821176470588236</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6382,25 +6391,25 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D146">
-        <v>10.75609756097561</v>
+        <v>2.383941176470588</v>
       </c>
       <c r="E146">
-        <v>8.60487804878049</v>
+        <v>1.057976470588237</v>
       </c>
       <c r="F146">
-        <v>6.453658536585367</v>
+        <v>0.7528235294117649</v>
       </c>
       <c r="G146">
-        <v>4.302439024390244</v>
+        <v>0.5289882352940402</v>
       </c>
       <c r="H146">
-        <v>2.151219512195122</v>
+        <v>0.2509411764705883</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6420,25 +6429,25 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D147">
-        <v>43.54243902439025</v>
+        <v>10.75609756097561</v>
       </c>
       <c r="E147">
-        <v>18.33365853658537</v>
+        <v>8.604878048780488</v>
       </c>
       <c r="F147">
-        <v>15.42180423581457</v>
+        <v>6.453658536585365</v>
       </c>
       <c r="G147">
-        <v>15.42180423581458</v>
+        <v>4.302439024390244</v>
       </c>
       <c r="H147">
-        <v>4.58341463414634</v>
+        <v>2.151219512195122</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6458,25 +6467,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D148">
-        <v>4.264024390243901</v>
+        <v>43.54243902439024</v>
       </c>
       <c r="E148">
-        <v>3.411219512195122</v>
+        <v>18.33365853658537</v>
       </c>
       <c r="F148">
-        <v>2.558414634146342</v>
+        <v>13.75024390243902</v>
       </c>
       <c r="G148">
-        <v>1.705609756097561</v>
+        <v>9.16682926829268</v>
       </c>
       <c r="H148">
-        <v>0.8528048780487806</v>
+        <v>4.58341463414634</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6496,25 +6505,25 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D149">
-        <v>2.624355825267446</v>
+        <v>4.264024390243903</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>3.411219512195122</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2.558414634146342</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1.705609756097561</v>
       </c>
       <c r="H149">
-        <v>0.01151999999999868</v>
+        <v>0.8528048780487805</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6534,37 +6543,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C150" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D150">
-        <v>52.24313886984916</v>
+        <v>2.624355825267503</v>
       </c>
       <c r="E150">
-        <v>73.27210411391506</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>91.65716380179752</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>96.27547465366577</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>43.58973971334971</v>
+        <v>0.01151999999999907</v>
       </c>
       <c r="I150">
-        <v>37.82190432229656</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>108.9238689609284</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>116.1658585615642</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>117.7905951095395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6572,28 +6581,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>52.2431388698492</v>
       </c>
       <c r="E151">
-        <v>8.337219640694181</v>
+        <v>81.58388089058445</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>93.33839994138241</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>102.4045214441382</v>
       </c>
       <c r="H151">
-        <v>45.99699255337843</v>
+        <v>64.57624614352922</v>
       </c>
       <c r="I151">
-        <v>50.00947377962198</v>
+        <v>33.08670437221774</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -6610,37 +6619,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D152">
-        <v>255.2592624137085</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>331.6123296180522</v>
+        <v>1.39688603217545</v>
       </c>
       <c r="F152">
-        <v>325.8113983393618</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>399.1791604904642</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>405.8972930535104</v>
+        <v>32.01692989608007</v>
       </c>
       <c r="I152">
-        <v>416.8881171382737</v>
+        <v>49.77185242669891</v>
       </c>
       <c r="J152">
-        <v>416.3913214479685</v>
+        <v>54.95774802302431</v>
       </c>
       <c r="K152">
-        <v>344.1424770752726</v>
+        <v>51.13018985102358</v>
       </c>
       <c r="L152">
-        <v>336.6384078180408</v>
+        <v>50.07873932055281</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6648,37 +6657,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D153">
-        <v>190.8228488372093</v>
+        <v>255.2592624137087</v>
       </c>
       <c r="E153">
-        <v>152.6582790697674</v>
+        <v>331.6123296180519</v>
       </c>
       <c r="F153">
-        <v>114.4937093023256</v>
+        <v>325.811398339361</v>
       </c>
       <c r="G153">
-        <v>76.32913953488371</v>
+        <v>398.9149742939919</v>
       </c>
       <c r="H153">
-        <v>38.16456976744185</v>
+        <v>377.303767652574</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>418.859065588902</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>629.3169000810984</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>642.2676000346952</v>
       </c>
       <c r="L153">
-        <v>0</v>
+        <v>658.8525582388519</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6686,28 +6695,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C154" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D154">
-        <v>38.38888888888889</v>
+        <v>190.8228488372093</v>
       </c>
       <c r="E154">
-        <v>31.99074074074074</v>
+        <v>152.6582790697674</v>
       </c>
       <c r="F154">
-        <v>25.59259259259258</v>
+        <v>114.4937093023256</v>
       </c>
       <c r="G154">
-        <v>19.19444444444444</v>
+        <v>76.32913953488371</v>
       </c>
       <c r="H154">
-        <v>12.79629629629629</v>
+        <v>38.16456976744185</v>
       </c>
       <c r="I154">
-        <v>6.398148148148144</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6724,28 +6733,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D155">
-        <v>110.9938271604938</v>
+        <v>38.38888888888889</v>
       </c>
       <c r="E155">
-        <v>92.49485596707818</v>
+        <v>31.99074074074073</v>
       </c>
       <c r="F155">
-        <v>73.99588477366255</v>
+        <v>25.59259259259258</v>
       </c>
       <c r="G155">
-        <v>55.4969135802469</v>
+        <v>19.19444444444444</v>
       </c>
       <c r="H155">
-        <v>36.99794238683128</v>
+        <v>12.79629629629629</v>
       </c>
       <c r="I155">
-        <v>18.49897119341563</v>
+        <v>6.398148148148145</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -6762,28 +6771,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D156">
-        <v>93.26543209876543</v>
+        <v>110.9938271604938</v>
       </c>
       <c r="E156">
-        <v>77.72119341563786</v>
+        <v>92.49485596707818</v>
       </c>
       <c r="F156">
-        <v>62.17695473251029</v>
+        <v>73.99588477366255</v>
       </c>
       <c r="G156">
-        <v>46.63271604938272</v>
+        <v>55.49691358024691</v>
       </c>
       <c r="H156">
-        <v>31.08847736625514</v>
+        <v>36.99794238683128</v>
       </c>
       <c r="I156">
-        <v>15.54423868312758</v>
+        <v>18.49897119341564</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -6800,28 +6809,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D157">
-        <v>27.16049382716049</v>
+        <v>93.26543209876543</v>
       </c>
       <c r="E157">
-        <v>22.63374485596708</v>
+        <v>77.72119341563786</v>
       </c>
       <c r="F157">
-        <v>18.10699588477366</v>
+        <v>62.17695473251028</v>
       </c>
       <c r="G157">
-        <v>25.80246913580246</v>
+        <v>46.63271604938271</v>
       </c>
       <c r="H157">
-        <v>9.053497942386832</v>
+        <v>40.46165329218108</v>
       </c>
       <c r="I157">
-        <v>4.526748971193417</v>
+        <v>15.54423868312757</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -6838,28 +6847,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D158">
-        <v>10.09814814814814</v>
+        <v>27.16049382716049</v>
       </c>
       <c r="E158">
-        <v>4.429012345679012</v>
+        <v>22.63374485596708</v>
       </c>
       <c r="F158">
-        <v>3.54320987654321</v>
+        <v>18.10699588477366</v>
       </c>
       <c r="G158">
-        <v>5.049074074074073</v>
+        <v>25.80246913580247</v>
       </c>
       <c r="H158">
-        <v>1.771604938271605</v>
+        <v>9.05349794238683</v>
       </c>
       <c r="I158">
-        <v>0.8858024691358022</v>
+        <v>4.526748971193417</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6876,28 +6885,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D159">
-        <v>5.981481481481481</v>
+        <v>10.09814814814815</v>
       </c>
       <c r="E159">
-        <v>4.984567901234566</v>
+        <v>4.429012345679012</v>
       </c>
       <c r="F159">
-        <v>3.987654320987654</v>
+        <v>3.54320987654321</v>
       </c>
       <c r="G159">
-        <v>5.682407407407406</v>
+        <v>5.049074074074074</v>
       </c>
       <c r="H159">
-        <v>1.993827160493827</v>
+        <v>1.771604938271605</v>
       </c>
       <c r="I159">
-        <v>0.9969135802469138</v>
+        <v>0.8858024691358022</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -6914,28 +6923,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s">
         <v>144</v>
       </c>
       <c r="D160">
-        <v>195.4173543506122</v>
+        <v>5.981481481481481</v>
       </c>
       <c r="E160">
-        <v>170.807767489712</v>
+        <v>4.984567901234567</v>
       </c>
       <c r="F160">
-        <v>164.6218242269812</v>
+        <v>3.987654320987654</v>
       </c>
       <c r="G160">
-        <v>124.708024691358</v>
+        <v>5.682407407407406</v>
       </c>
       <c r="H160">
-        <v>83.13868312757201</v>
+        <v>1.993827160493827</v>
       </c>
       <c r="I160">
-        <v>41.56934156378601</v>
+        <v>0.9969135802469138</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6952,28 +6961,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D161">
-        <v>224.543997521279</v>
+        <v>197.7620025145074</v>
       </c>
       <c r="E161">
-        <v>219.2441666666666</v>
+        <v>170.8077674897119</v>
       </c>
       <c r="F161">
-        <v>175.3953333333333</v>
+        <v>166.0870430718257</v>
       </c>
       <c r="G161">
-        <v>131.5465</v>
+        <v>124.708024691358</v>
       </c>
       <c r="H161">
-        <v>46.15666666666667</v>
+        <v>83.13868312757199</v>
       </c>
       <c r="I161">
-        <v>23.07833333333333</v>
+        <v>39.82342921810699</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -6990,28 +6999,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C162" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D162">
-        <v>91.17682926829269</v>
+        <v>230.206375</v>
       </c>
       <c r="E162">
-        <v>39.98983739837399</v>
+        <v>219.2441666666666</v>
       </c>
       <c r="F162">
-        <v>37.45454122968525</v>
+        <v>175.3953333333333</v>
       </c>
       <c r="G162">
-        <v>37.45454122968525</v>
+        <v>131.5465</v>
       </c>
       <c r="H162">
-        <v>30.39227642276423</v>
+        <v>46.15666666666667</v>
       </c>
       <c r="I162">
-        <v>7.997967479674803</v>
+        <v>23.07833333333333</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -7028,28 +7037,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D163">
-        <v>263.6078313253012</v>
+        <v>91.17682926829269</v>
       </c>
       <c r="E163">
-        <v>115.6174698795181</v>
+        <v>39.98983739837399</v>
       </c>
       <c r="F163">
-        <v>98.13648154745307</v>
+        <v>37.39373277329113</v>
       </c>
       <c r="G163">
-        <v>115.6174698795181</v>
+        <v>39.98983739837399</v>
       </c>
       <c r="H163">
-        <v>46.24698795180724</v>
+        <v>15.9959349593496</v>
       </c>
       <c r="I163">
-        <v>23.12349397590361</v>
+        <v>7.997967479674803</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -7066,28 +7075,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C164" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D164">
-        <v>524.6176470588235</v>
+        <v>263.6078313253012</v>
       </c>
       <c r="E164">
-        <v>437.1813725490196</v>
+        <v>119.0467896747755</v>
       </c>
       <c r="F164">
-        <v>349.7450980392157</v>
+        <v>92.4939759036145</v>
       </c>
       <c r="G164">
-        <v>262.3088235294118</v>
+        <v>119.0467896747755</v>
       </c>
       <c r="H164">
-        <v>174.8725490196078</v>
+        <v>46.24698795180724</v>
       </c>
       <c r="I164">
-        <v>87.43627450980392</v>
+        <v>23.12349397590361</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -7104,28 +7113,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C165" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D165">
-        <v>71.88333333333333</v>
+        <v>524.6176470588235</v>
       </c>
       <c r="E165">
-        <v>59.90277777777776</v>
+        <v>437.1813725490196</v>
       </c>
       <c r="F165">
-        <v>25.22222222222222</v>
+        <v>349.7450980392157</v>
       </c>
       <c r="G165">
-        <v>18.91666666666666</v>
+        <v>262.3088235294118</v>
       </c>
       <c r="H165">
-        <v>12.61111111111111</v>
+        <v>262.3088235294118</v>
       </c>
       <c r="I165">
-        <v>6.305555555555554</v>
+        <v>87.43627450980392</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -7142,28 +7151,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C166" t="s">
         <v>149</v>
       </c>
       <c r="D166">
-        <v>4.685185185185185</v>
+        <v>71.88333333333333</v>
       </c>
       <c r="E166">
-        <v>3.904320987654321</v>
+        <v>38.69511793206092</v>
       </c>
       <c r="F166">
-        <v>3.123456790123456</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="G166">
-        <v>2.342592592592593</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="H166">
-        <v>2.342592592592593</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I166">
-        <v>0.780864197530864</v>
+        <v>6.305555555555554</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -7180,28 +7189,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D167">
-        <v>136.085</v>
+        <v>8.901851851851852</v>
       </c>
       <c r="E167">
-        <v>129.28075</v>
+        <v>3.904320987654321</v>
       </c>
       <c r="F167">
-        <v>129.28075</v>
+        <v>3.123456790123456</v>
       </c>
       <c r="G167">
-        <v>129.28075</v>
+        <v>4.450925925925926</v>
       </c>
       <c r="H167">
-        <v>45.36166666666666</v>
+        <v>1.561728395061728</v>
       </c>
       <c r="I167">
-        <v>22.68083333333334</v>
+        <v>0.780864197530864</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -7218,28 +7227,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C168" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D168">
-        <v>40.36470588235294</v>
+        <v>136.085</v>
       </c>
       <c r="E168">
-        <v>33.63725490196079</v>
+        <v>113.4041666666667</v>
       </c>
       <c r="F168">
-        <v>26.90980392156863</v>
+        <v>113.4041666666667</v>
       </c>
       <c r="G168">
-        <v>20.18235294117647</v>
+        <v>113.4041666666667</v>
       </c>
       <c r="H168">
-        <v>13.45490196078432</v>
+        <v>45.36166666666666</v>
       </c>
       <c r="I168">
-        <v>6.727450980392161</v>
+        <v>22.68083333333334</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -7256,28 +7265,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C169" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D169">
-        <v>517.1058823529412</v>
+        <v>40.36470588235294</v>
       </c>
       <c r="E169">
-        <v>430.9215686274511</v>
+        <v>33.63725490196079</v>
       </c>
       <c r="F169">
-        <v>344.7372549019607</v>
+        <v>26.90980392156863</v>
       </c>
       <c r="G169">
-        <v>258.5529411764706</v>
+        <v>20.18235294117647</v>
       </c>
       <c r="H169">
-        <v>172.3686274509804</v>
+        <v>13.45490196078432</v>
       </c>
       <c r="I169">
-        <v>86.18431372549018</v>
+        <v>6.727450980392161</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -7294,28 +7303,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C170" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D170">
-        <v>181.445</v>
+        <v>517.1058823529412</v>
       </c>
       <c r="E170">
-        <v>151.2041666666667</v>
+        <v>430.9215686274511</v>
       </c>
       <c r="F170">
-        <v>120.9633333333333</v>
+        <v>344.7372549019607</v>
       </c>
       <c r="G170">
-        <v>90.7225</v>
+        <v>258.5529411764706</v>
       </c>
       <c r="H170">
-        <v>60.48166666666667</v>
+        <v>172.3686274509804</v>
       </c>
       <c r="I170">
-        <v>30.24083333333332</v>
+        <v>86.18431372549018</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7332,28 +7341,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C171" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D171">
-        <v>19.19753086419753</v>
+        <v>181.445</v>
       </c>
       <c r="E171">
-        <v>15.99794238683128</v>
+        <v>151.2041666666667</v>
       </c>
       <c r="F171">
-        <v>12.79835390946502</v>
+        <v>120.9633333333333</v>
       </c>
       <c r="G171">
-        <v>9.598765432098764</v>
+        <v>90.7225</v>
       </c>
       <c r="H171">
-        <v>6.39917695473251</v>
+        <v>60.48166666666667</v>
       </c>
       <c r="I171">
-        <v>3.199588477366255</v>
+        <v>30.24083333333332</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7370,28 +7379,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C172" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D172">
-        <v>55.5</v>
+        <v>19.19753086419753</v>
       </c>
       <c r="E172">
-        <v>46.24999999999999</v>
+        <v>15.99794238683128</v>
       </c>
       <c r="F172">
-        <v>37</v>
+        <v>12.79835390946502</v>
       </c>
       <c r="G172">
-        <v>27.75</v>
+        <v>9.598765432098764</v>
       </c>
       <c r="H172">
-        <v>18.5</v>
+        <v>6.39917695473251</v>
       </c>
       <c r="I172">
-        <v>9.25</v>
+        <v>3.199588477366255</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7408,28 +7417,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C173" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D173">
-        <v>104.9259259259259</v>
+        <v>55.5</v>
       </c>
       <c r="E173">
-        <v>87.43827160493825</v>
+        <v>46.24999999999999</v>
       </c>
       <c r="F173">
-        <v>69.95061728395061</v>
+        <v>37</v>
       </c>
       <c r="G173">
-        <v>52.46296296296295</v>
+        <v>27.75</v>
       </c>
       <c r="H173">
-        <v>34.9753086419753</v>
+        <v>18.5</v>
       </c>
       <c r="I173">
-        <v>17.48765432098764</v>
+        <v>9.25</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7446,28 +7455,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C174" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D174">
-        <v>2.006172839506173</v>
+        <v>104.9259259259259</v>
       </c>
       <c r="E174">
-        <v>1.671810699588477</v>
+        <v>87.43827160493825</v>
       </c>
       <c r="F174">
-        <v>1.337448559670782</v>
+        <v>69.95061728395061</v>
       </c>
       <c r="G174">
-        <v>1.003086419753086</v>
+        <v>52.46296296296295</v>
       </c>
       <c r="H174">
-        <v>0.6687242798353911</v>
+        <v>34.9753086419753</v>
       </c>
       <c r="I174">
-        <v>0.3343621399176954</v>
+        <v>17.48765432098764</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7484,28 +7493,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C175" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D175">
-        <v>16.72469135802469</v>
+        <v>2.006172839506173</v>
       </c>
       <c r="E175">
-        <v>13.93724279835391</v>
+        <v>1.671810699588477</v>
       </c>
       <c r="F175">
-        <v>11.14979423868312</v>
+        <v>1.337448559670782</v>
       </c>
       <c r="G175">
-        <v>4.401234567901234</v>
+        <v>1.671810699588477</v>
       </c>
       <c r="H175">
-        <v>2.934156378600823</v>
+        <v>0.6687242798353911</v>
       </c>
       <c r="I175">
-        <v>1.467078189300412</v>
+        <v>0.3343621399176954</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -7522,28 +7531,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D176">
-        <v>72.58</v>
+        <v>16.72469135802469</v>
       </c>
       <c r="E176">
-        <v>60.48333333333334</v>
+        <v>13.93724279835391</v>
       </c>
       <c r="F176">
-        <v>48.38666666666667</v>
+        <v>11.14979423868312</v>
       </c>
       <c r="G176">
-        <v>36.29</v>
+        <v>4.401234567901234</v>
       </c>
       <c r="H176">
-        <v>24.19333333333334</v>
+        <v>2.934156378600823</v>
       </c>
       <c r="I176">
-        <v>12.09666666666666</v>
+        <v>1.467078189300412</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7560,28 +7569,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C177" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D177">
-        <v>1.791145833333334</v>
+        <v>72.58</v>
       </c>
       <c r="E177">
-        <v>1.492621527777778</v>
+        <v>60.48333333333334</v>
       </c>
       <c r="F177">
-        <v>0.6284722222222222</v>
+        <v>48.38666666666667</v>
       </c>
       <c r="G177">
-        <v>0.6284722222222222</v>
+        <v>36.29</v>
       </c>
       <c r="H177">
-        <v>0.3142361111111111</v>
+        <v>24.19333333333334</v>
       </c>
       <c r="I177">
-        <v>0.2985243055555556</v>
+        <v>12.09666666666666</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -7598,28 +7607,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C178" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D178">
-        <v>46.77283950617284</v>
+        <v>1.791145833333334</v>
       </c>
       <c r="E178">
-        <v>38.97736625514404</v>
+        <v>1.492621527777778</v>
       </c>
       <c r="F178">
-        <v>31.18189300411523</v>
+        <v>1.194097222222222</v>
       </c>
       <c r="G178">
-        <v>23.38641975308642</v>
+        <v>0.8955729166666668</v>
       </c>
       <c r="H178">
-        <v>8.205761316872429</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="I178">
-        <v>4.102880658436215</v>
+        <v>0.1571180555555556</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -7636,37 +7645,37 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C179" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D179">
-        <v>12.75134254389503</v>
+        <v>46.77283950617284</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>38.97736625514404</v>
       </c>
       <c r="F179">
-        <v>40.25613709819986</v>
+        <v>31.18189300411523</v>
       </c>
       <c r="G179">
-        <v>51.94454629629633</v>
+        <v>23.38641975308642</v>
       </c>
       <c r="H179">
-        <v>59.43473240199607</v>
+        <v>8.205761316872429</v>
       </c>
       <c r="I179">
-        <v>29.7046306797892</v>
+        <v>4.102880658436215</v>
       </c>
       <c r="J179">
-        <v>21.84156147154307</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>18.46245569741088</v>
+        <v>0</v>
       </c>
       <c r="L179">
-        <v>14.81807041896549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7674,37 +7683,37 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C180" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>12.24719102574352</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
-        <v>21.2902054192657</v>
+        <v>40.84222463613769</v>
       </c>
       <c r="G180">
-        <v>86.78106790123461</v>
+        <v>51.94454629629628</v>
       </c>
       <c r="H180">
-        <v>37.22907812962965</v>
+        <v>49.284474562155</v>
       </c>
       <c r="I180">
-        <v>22.99698299382717</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>22.99698299382717</v>
+        <v>0</v>
       </c>
       <c r="K180">
-        <v>9.893041740740745</v>
+        <v>0</v>
       </c>
       <c r="L180">
-        <v>20.17603077577446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7712,37 +7721,37 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C181" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D181">
-        <v>63.06845138172431</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>58.92502057613171</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>69.52050464907467</v>
+        <v>23.92759933998577</v>
       </c>
       <c r="G181">
-        <v>95.64526543209881</v>
+        <v>86.78106790123454</v>
       </c>
       <c r="H181">
-        <v>113.5741250635625</v>
+        <v>31.38865068925121</v>
       </c>
       <c r="I181">
-        <v>42.93654781366544</v>
+        <v>0</v>
       </c>
       <c r="J181">
-        <v>273.7613959882097</v>
+        <v>0</v>
       </c>
       <c r="K181">
-        <v>224.8441011969399</v>
+        <v>0</v>
       </c>
       <c r="L181">
-        <v>266.3980044251757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7750,37 +7759,37 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C182" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>64.94416991284049</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>58.92502057613169</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>70.69267972495028</v>
       </c>
       <c r="G182">
-        <v>9.767026234567917</v>
+        <v>95.64526543209875</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>173.1445603752876</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>10.61616282593004</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>9.767026234567917</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>4.190054254629636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7788,10 +7797,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -7803,22 +7812,22 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>9.767026234567894</v>
       </c>
       <c r="H183">
-        <v>260.6180411593564</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>346.960090192106</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>345.75228634319</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>410.6721016456601</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>386.0450232299066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7826,10 +7835,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C184" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -7841,22 +7850,22 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>53.13945216049392</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>143.0553870197605</v>
+        <v>172.2813146071806</v>
       </c>
       <c r="I184">
-        <v>221.3221070994288</v>
+        <v>80.49358639795282</v>
       </c>
       <c r="J184">
-        <v>210.7862136286781</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>205.7893105233774</v>
+        <v>17.05071636104232</v>
       </c>
       <c r="L184">
-        <v>198.025148818359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7864,37 +7873,37 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D185">
-        <v>1.901883440910105</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>54.83202487182729</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>54.8320248718273</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>61.37079759703929</v>
+        <v>53.1394521604938</v>
       </c>
       <c r="H185">
-        <v>61.37079759703927</v>
+        <v>155.4304565718494</v>
       </c>
       <c r="I185">
-        <v>49.16043699160709</v>
+        <v>681.1137039244267</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>951.1799785250338</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>943.5291494777233</v>
       </c>
       <c r="L185">
-        <v>0</v>
+        <v>973.1819014451942</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7902,25 +7911,25 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>3.038345899220501</v>
       </c>
       <c r="E186">
-        <v>138.3977474919761</v>
+        <v>54.89912853394292</v>
       </c>
       <c r="F186">
-        <v>138.3977474919761</v>
+        <v>54.89912853394292</v>
       </c>
       <c r="G186">
-        <v>138.3977474919761</v>
+        <v>59.21291866920311</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>59.2129186692031</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -7940,37 +7949,37 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C187" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D187">
-        <v>592.3269054516095</v>
+        <v>19.03769417723831</v>
       </c>
       <c r="E187">
-        <v>700.6809746933956</v>
+        <v>140.8007896605035</v>
       </c>
       <c r="F187">
-        <v>757.6936951789345</v>
+        <v>140.8007896605035</v>
       </c>
       <c r="G187">
-        <v>923.5952423912821</v>
+        <v>178.5614785279557</v>
       </c>
       <c r="H187">
-        <v>1532.766462697834</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1823.41550842802</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>2040.235328094581</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>2061.801977856996</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>2082.500691452018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7978,28 +7987,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C188" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D188">
-        <v>82.21092641139688</v>
+        <v>605.9644549513345</v>
       </c>
       <c r="E188">
-        <v>121.8281074842814</v>
+        <v>701.4862186387832</v>
       </c>
       <c r="F188">
-        <v>179.6368828872235</v>
+        <v>757.7692376475927</v>
       </c>
       <c r="G188">
-        <v>227.4483129075695</v>
+        <v>928.1242492815131</v>
       </c>
       <c r="H188">
-        <v>76.28894540161879</v>
+        <v>1320.638508513486</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>174.9365319735908</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -8016,22 +8025,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C189" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D189">
-        <v>52.71400682684985</v>
+        <v>22.33184183417985</v>
       </c>
       <c r="E189">
-        <v>61.18460736824051</v>
+        <v>22.33184183417985</v>
       </c>
       <c r="F189">
-        <v>45.29861785002084</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>39.59147930757206</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8040,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>2.051121737187321</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -8054,37 +8063,37 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C190" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D190">
-        <v>515.7074484229881</v>
+        <v>0.5196656648994665</v>
       </c>
       <c r="E190">
-        <v>627.779712873782</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>692.4092011383016</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>845.4676839751112</v>
+        <v>5.469349680831784</v>
       </c>
       <c r="H190">
-        <v>944.4170500207983</v>
+        <v>5.469349680831784</v>
       </c>
       <c r="I190">
-        <v>1044.868001506104</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>1140.461959621418</v>
+        <v>0</v>
       </c>
       <c r="K190">
-        <v>1144.724979318485</v>
+        <v>0</v>
       </c>
       <c r="L190">
-        <v>1153.96856608495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8092,37 +8101,37 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C191" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D191">
-        <v>13.55967489492661</v>
+        <v>42.92383281827505</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>131.1507688380607</v>
       </c>
       <c r="F191">
-        <v>18.56034713804553</v>
+        <v>193.0280747303557</v>
       </c>
       <c r="G191">
-        <v>22.21029057094029</v>
+        <v>202.7546511746916</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>202.7546511746916</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1518.137303163669</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1830.606679391276</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1854.109307081525</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>1873.693336637573</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8130,22 +8139,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C192" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D192">
-        <v>6.952360318932895</v>
+        <v>53.85046928516024</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>61.25171103035611</v>
       </c>
       <c r="F192">
-        <v>7.350918177470443</v>
+        <v>51.06753925558358</v>
       </c>
       <c r="G192">
-        <v>7.350918177470442</v>
+        <v>31.63291121434924</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -8168,37 +8177,37 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C193" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D193">
-        <v>58.86010286969481</v>
+        <v>515.7074484229884</v>
       </c>
       <c r="E193">
-        <v>76.08517844108009</v>
+        <v>627.7797128737818</v>
       </c>
       <c r="F193">
-        <v>86.84288795360212</v>
+        <v>692.4092011383013</v>
       </c>
       <c r="G193">
-        <v>106.5823170522323</v>
+        <v>845.4676839751107</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>944.4170500207983</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1044.868001506103</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1131.72115541086</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1144.258875255126</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>1155.161499623731</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8206,37 +8215,37 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C194" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D194">
-        <v>91.20602879562075</v>
+        <v>2.144348518613915</v>
       </c>
       <c r="E194">
-        <v>103.040116712685</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>108.4068385708861</v>
+        <v>15.71879005201906</v>
       </c>
       <c r="G194">
-        <v>122.7552800151953</v>
+        <v>22.19528431397849</v>
       </c>
       <c r="H194">
-        <v>243.3056291385348</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>246.1514735643157</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>280.6522839901652</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>283.6551978841576</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>281.2059518142767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8244,28 +8253,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C195" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D195">
-        <v>0.2158541666666667</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>31.21206848142588</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>31.18058378081677</v>
+        <v>6.625781928289385</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195">
-        <v>30.99621431475921</v>
+        <v>0</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -8282,22 +8291,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C196" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D196">
-        <v>32.27623218167707</v>
+        <v>56.10324567330424</v>
       </c>
       <c r="E196">
-        <v>15.87499395253537</v>
+        <v>76.00261843776372</v>
       </c>
       <c r="F196">
-        <v>26.84343390741062</v>
+        <v>86.87137094975328</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>106.5072857674234</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8320,37 +8329,37 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C197" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D197">
-        <v>18.74157201207543</v>
+        <v>88.44917159923011</v>
       </c>
       <c r="E197">
-        <v>26.4320137632633</v>
+        <v>102.9575567093686</v>
       </c>
       <c r="F197">
-        <v>31.53550909090587</v>
+        <v>108.4353215670372</v>
       </c>
       <c r="G197">
-        <v>31.53550909090587</v>
+        <v>122.6802487303863</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>243.2475586176614</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>259.5920223979291</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>280.8472113598108</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>283.8393311831777</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>281.3829605343573</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8358,37 +8367,151 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
+        <v>139</v>
+      </c>
+      <c r="C198" t="s">
+        <v>165</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>31.19555648076255</v>
+      </c>
+      <c r="F198">
+        <v>30.17030042451859</v>
+      </c>
+      <c r="G198">
+        <v>30.89847682941058</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
         <v>140</v>
       </c>
-      <c r="C198" t="s">
-        <v>161</v>
-      </c>
-      <c r="D198">
+      <c r="C199" t="s">
+        <v>144</v>
+      </c>
+      <c r="D199">
+        <v>32.05178514509245</v>
+      </c>
+      <c r="E199">
+        <v>9.413853407661747</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>141</v>
+      </c>
+      <c r="C200" t="s">
+        <v>146</v>
+      </c>
+      <c r="D200">
+        <v>17.63882913351919</v>
+      </c>
+      <c r="E200">
+        <v>26.39898976193674</v>
+      </c>
+      <c r="F200">
+        <v>31.54690228936635</v>
+      </c>
+      <c r="G200">
+        <v>31.54690228936635</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>142</v>
+      </c>
+      <c r="C201" t="s">
+        <v>164</v>
+      </c>
+      <c r="D201">
         <v>181.4191690980392</v>
       </c>
-      <c r="E198">
+      <c r="E201">
         <v>220.6045509075028</v>
       </c>
-      <c r="F198">
-        <v>243.0542017181528</v>
-      </c>
-      <c r="G198">
-        <v>290.6634209671803</v>
-      </c>
-      <c r="H198">
+      <c r="F201">
+        <v>243.0542017181527</v>
+      </c>
+      <c r="G201">
+        <v>290.6634209671802</v>
+      </c>
+      <c r="H201">
         <v>323.4626603912274</v>
       </c>
-      <c r="I198">
-        <v>356.9004207556519</v>
-      </c>
-      <c r="J198">
-        <v>381.6982187031362</v>
-      </c>
-      <c r="K198">
-        <v>384.0540812278405</v>
-      </c>
-      <c r="L198">
-        <v>383.2749919686186</v>
+      <c r="I201">
+        <v>356.9004207556518</v>
+      </c>
+      <c r="J201">
+        <v>381.6982187031363</v>
+      </c>
+      <c r="K201">
+        <v>384.0540812278406</v>
+      </c>
+      <c r="L201">
+        <v>383.2749919686187</v>
       </c>
     </row>
   </sheetData>
@@ -8409,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
